--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-03T07:42:11+00:00</t>
+    <t>2024-02-03T08:02:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-03T08:02:03+00:00</t>
+    <t>2024-02-03T10:52:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-03T10:52:31+00:00</t>
+    <t>2024-02-03T12:20:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-03T12:20:16+00:00</t>
+    <t>2024-02-03T13:59:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-03T13:59:18+00:00</t>
+    <t>2024-02-03T20:15:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-03T20:15:25+00:00</t>
+    <t>2024-02-04T08:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-04T08:14:02+00:00</t>
+    <t>2024-02-04T09:46:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T12:39:32+00:00</t>
+    <t>2024-02-05T14:53:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1605,17 +1605,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.8046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.68359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.43359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="28.0234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.6171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="94.12890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1624,25 +1624,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.48046875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="36.79296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.23046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="37.69140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.79296875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="99.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.2421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2746,7 +2746,7 @@
         <v>134</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>74</v>
@@ -2857,7 +2857,7 @@
         <v>134</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>74</v>
@@ -6740,7 +6740,7 @@
         <v>134</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>74</v>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T14:53:04+00:00</t>
+    <t>2024-02-06T11:30:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T11:30:33+00:00</t>
+    <t>2024-02-06T12:19:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T12:19:49+00:00</t>
+    <t>2024-02-06T14:33:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T14:33:31+00:00</t>
+    <t>2024-02-06T16:19:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T16:19:49+00:00</t>
+    <t>2024-02-07T07:23:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1605,17 +1605,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.43359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="28.0234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.8046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.68359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="27.625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.12890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="94.6171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1624,25 +1624,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.23046875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="37.69140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.48046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="36.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="99.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.2421875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="99.8984375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.79296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2746,7 +2746,7 @@
         <v>134</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>74</v>
@@ -2857,7 +2857,7 @@
         <v>134</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>74</v>
@@ -6740,7 +6740,7 @@
         <v>134</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>74</v>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T07:23:51+00:00</t>
+    <t>2024-02-07T10:40:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T10:40:08+00:00</t>
+    <t>2024-02-07T12:16:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T12:16:01+00:00</t>
+    <t>2024-02-07T13:26:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T13:26:07+00:00</t>
+    <t>2024-02-07T16:05:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-08T11:21:17+00:00</t>
+    <t>2024-02-08T16:46:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-08T16:46:36+00:00</t>
+    <t>2024-02-09T06:56:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1605,17 +1605,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.43359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="28.0234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.8046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.68359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="27.625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.12890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="94.6171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1624,25 +1624,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.23046875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="37.69140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.48046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="36.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="99.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.2421875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="99.8984375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.79296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2746,7 +2746,7 @@
         <v>134</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>74</v>
@@ -2857,7 +2857,7 @@
         <v>134</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>74</v>
@@ -6740,7 +6740,7 @@
         <v>134</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>74</v>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T06:56:29+00:00</t>
+    <t>2024-02-10T09:00:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-10T09:00:37+00:00</t>
+    <t>2024-02-29T07:38:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T07:38:13+00:00</t>
+    <t>2024-03-05T15:05:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1605,17 +1605,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.8046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.68359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.43359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="28.0234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.6171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="94.12890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1624,25 +1624,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.48046875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="36.79296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.23046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="37.69140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.79296875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="99.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.2421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2746,7 +2746,7 @@
         <v>134</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>74</v>
@@ -2857,7 +2857,7 @@
         <v>134</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>74</v>
@@ -6740,7 +6740,7 @@
         <v>134</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>74</v>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T15:05:36+00:00</t>
+    <t>2024-03-06T11:41:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T11:41:32+00:00</t>
+    <t>2024-03-06T15:16:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T15:16:08+00:00</t>
+    <t>2024-03-20T08:38:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1605,17 +1605,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.43359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="28.0234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.8046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.68359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="27.625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.12890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="94.6171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1624,25 +1624,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.23046875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="37.69140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.48046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="36.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="99.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.2421875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="99.8984375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.79296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2746,7 +2746,7 @@
         <v>134</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>74</v>
@@ -2857,7 +2857,7 @@
         <v>134</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>74</v>
@@ -6740,7 +6740,7 @@
         <v>134</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>74</v>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-20T08:38:17+00:00</t>
+    <t>2024-03-20T10:33:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1605,17 +1605,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.8046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.68359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.43359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="28.0234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.6171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="94.12890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1624,25 +1624,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.48046875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="36.79296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.23046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="37.69140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.79296875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="99.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.2421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2746,7 +2746,7 @@
         <v>134</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>74</v>
@@ -2857,7 +2857,7 @@
         <v>134</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>74</v>
@@ -6740,7 +6740,7 @@
         <v>134</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>74</v>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-20T10:33:47+00:00</t>
+    <t>2024-03-20T11:14:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-20T11:14:51+00:00</t>
+    <t>2024-03-20T16:58:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-20T16:58:46+00:00</t>
+    <t>2024-03-21T08:58:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1605,17 +1605,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.43359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="28.0234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.8046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.68359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="27.625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.12890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="94.6171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1624,25 +1624,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.23046875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="37.69140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.48046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="36.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="99.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.2421875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="99.8984375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.79296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2746,7 +2746,7 @@
         <v>134</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>74</v>
@@ -2857,7 +2857,7 @@
         <v>134</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>74</v>
@@ -6740,7 +6740,7 @@
         <v>134</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>74</v>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-21T08:58:26+00:00</t>
+    <t>2024-03-21T14:16:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T11:42:20+00:00</t>
+    <t>2024-03-22T12:58:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1605,17 +1605,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.8046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.68359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.43359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="28.0234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.6171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="94.12890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1624,25 +1624,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.48046875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="36.79296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.23046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="37.69140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.79296875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="99.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.2421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2746,7 +2746,7 @@
         <v>134</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>74</v>
@@ -2857,7 +2857,7 @@
         <v>134</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>74</v>
@@ -6740,7 +6740,7 @@
         <v>134</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>74</v>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T12:58:08+00:00</t>
+    <t>2024-03-22T14:34:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T14:34:11+00:00</t>
+    <t>2024-03-22T16:20:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="419">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T16:20:37+00:00</t>
+    <t>2024-03-25T12:19:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -260,7 +260,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
   </si>
   <si>
     <t>role</t>
@@ -307,10 +307,17 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>RelatedPerson.implicitRules</t>
   </si>
   <si>
@@ -330,6 +337,9 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>RelatedPerson.language</t>
   </si>
   <si>
@@ -407,26 +417,33 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>RelatedPerson.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
   </si>
   <si>
@@ -450,10 +467,6 @@
     <t>The preferred method of contact, contact times and written communication format given by a Patient or Related Person.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>RelatedPerson.extension:copyCorrespondenceIndicator</t>
   </si>
   <si>
@@ -473,10 +486,6 @@
     <t>RelatedPerson.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -484,9 +493,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -534,19 +540,10 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>RelatedPerson.identifier.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -680,7 +677,15 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
     <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>Role.effectiveTime or implied by context</t>
@@ -708,6 +713,10 @@
     <t>Identifier.assigner</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+  </si>
+  <si>
     <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
@@ -745,7 +754,7 @@
     <t>RelatedPerson.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/StructureDefinition/UKCore-Patient)
+    <t xml:space="preserve">Reference(https://fhir.nhs.uk/England/StructureDefinition/PatientPDS)
 </t>
   </si>
   <si>
@@ -755,6 +764,9 @@
     <t>The patient this person is related to.</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
     <t>We need to know which patient this RelatedPerson is related to.</t>
   </si>
   <si>
@@ -785,8 +797,8 @@
     <t>Reference.reference</t>
   </si>
   <si>
-    <t xml:space="preserve">ref-1
-</t>
+    <t>ele-1
+ref-1</t>
   </si>
   <si>
     <t>RelatedPerson.patient.type</t>
@@ -832,6 +844,9 @@
     <t>.identifier</t>
   </si>
   <si>
+    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+  </si>
+  <si>
     <t>RelatedPerson.patient.identifier.id</t>
   </si>
   <si>
@@ -878,6 +893,9 @@
   </si>
   <si>
     <t>The nature of the relationship between a patient and the related person.</t>
+  </si>
+  <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
     <t>We need to know the relationship with the patient since it influences the interpretation of the information attributed to this person.</t>
@@ -908,6 +926,9 @@
     <t>A name associated with the person.</t>
   </si>
   <si>
+    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
+  </si>
+  <si>
     <t>Related persons need to be identified by name, but it is uncommon to need details about multiple other names for that person.</t>
   </si>
   <si>
@@ -936,6 +957,10 @@
     <t>People have (primary) ways to contact them in some way such as phone, email.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
+  </si>
+  <si>
     <t>telecom</t>
   </si>
   <si>
@@ -957,6 +982,9 @@
     <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
   </si>
   <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
     <t>Telecommunications form for contact point.</t>
   </si>
   <si>
@@ -966,8 +994,8 @@
     <t>ContactPoint.system</t>
   </si>
   <si>
-    <t xml:space="preserve">cpt-2
-</t>
+    <t>ele-1
+cpt-2</t>
   </si>
   <si>
     <t>./scheme</t>
@@ -977,12 +1005,6 @@
   </si>
   <si>
     <t>RelatedPerson.telecom.system.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references)</t>
   </si>
   <si>
     <t>RelatedPerson.telecom.system.extension</t>
@@ -1010,6 +1032,9 @@
     <t>Primitive value for code</t>
   </si>
   <si>
+    <t>1048576</t>
+  </si>
+  <si>
     <t>string.value</t>
   </si>
   <si>
@@ -1154,6 +1179,9 @@
     <t>Address where the related person can be contacted or visited.</t>
   </si>
   <si>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+  </si>
+  <si>
     <t>Need to keep track where the related person can be contacted per postal mail or visited.</t>
   </si>
   <si>
@@ -1176,9 +1204,16 @@
     <t>Image of the person.</t>
   </si>
   <si>
+    <t>When providing a summary view (for example with Observation.value[x]) Attachment should be represented with a brief display text such as "Signed Procedure Consent".</t>
+  </si>
+  <si>
     <t>Many EHR systems have the capability to capture an image of persons. Fits with newer social media usage too.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+att-1:If the Attachment has data, it SHALL have a contentType {data.empty() or contentType.exists()}</t>
+  </si>
+  <si>
     <t>player[classCode='PSN' and determinerCode='INSTANCE']/desc</t>
   </si>
   <si>
@@ -1198,6 +1233,9 @@
   </si>
   <si>
     <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>DR</t>
   </si>
   <si>
     <t>RelatedPerson.communication</t>
@@ -1261,6 +1299,9 @@
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/languageCommunication/code</t>
+  </si>
+  <si>
+    <t>CE/CNE/CWE</t>
   </si>
   <si>
     <t>RelatedPerson.communication.preferred</t>
@@ -1642,7 +1683,7 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="99.69140625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.2421875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="60.5" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2078,13 +2119,13 @@
         <v>83</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>74</v>
@@ -2095,10 +2136,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2121,16 +2162,16 @@
         <v>84</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2180,7 +2221,7 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
@@ -2189,13 +2230,13 @@
         <v>83</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>74</v>
@@ -2206,10 +2247,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2232,16 +2273,16 @@
         <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2267,13 +2308,13 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>74</v>
@@ -2291,7 +2332,7 @@
         <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
@@ -2300,13 +2341,13 @@
         <v>83</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>74</v>
@@ -2317,14 +2358,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2343,16 +2384,16 @@
         <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2402,7 +2443,7 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
@@ -2411,13 +2452,13 @@
         <v>83</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>74</v>
@@ -2428,14 +2469,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2454,16 +2495,16 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2513,7 +2554,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -2528,7 +2569,7 @@
         <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>74</v>
@@ -2539,14 +2580,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2565,15 +2606,17 @@
         <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>74</v>
@@ -2610,17 +2653,19 @@
         <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -2629,13 +2674,13 @@
         <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>74</v>
@@ -2646,16 +2691,16 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2674,15 +2719,17 @@
         <v>74</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -2731,7 +2778,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2740,13 +2787,13 @@
         <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="AJ10" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="AK10" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>74</v>
@@ -2757,16 +2804,16 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2785,15 +2832,17 @@
         <v>74</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>74</v>
@@ -2842,7 +2891,7 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2851,13 +2900,13 @@
         <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="AJ11" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="AK11" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>74</v>
@@ -2868,14 +2917,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2894,19 +2943,19 @@
         <v>74</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>74</v>
@@ -2943,19 +2992,19 @@
         <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -2964,13 +3013,13 @@
         <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>74</v>
@@ -2981,10 +3030,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3007,17 +3056,17 @@
         <v>84</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>74</v>
@@ -3066,7 +3115,7 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -3075,27 +3124,27 @@
         <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3118,13 +3167,13 @@
         <v>74</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3175,7 +3224,7 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -3190,7 +3239,7 @@
         <v>74</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>74</v>
@@ -3201,14 +3250,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3227,16 +3276,16 @@
         <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>168</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3274,19 +3323,19 @@
         <v>74</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AC15" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -3295,13 +3344,13 @@
         <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>74</v>
@@ -3312,10 +3361,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3338,19 +3387,19 @@
         <v>84</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>74</v>
@@ -3375,60 +3424,60 @@
         <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="Z16" t="s" s="2">
+      <c r="AA16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AA16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF16" t="s" s="2">
+      <c r="AG16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AG16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>180</v>
-      </c>
       <c r="AL16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3451,19 +3500,19 @@
         <v>84</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>74</v>
@@ -3488,60 +3537,60 @@
         <v>74</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="Z17" t="s" s="2">
+      <c r="AA17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AA17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF17" t="s" s="2">
+      <c r="AG17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>191</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3564,19 +3613,19 @@
         <v>84</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>74</v>
@@ -3589,72 +3638,72 @@
         <v>74</v>
       </c>
       <c r="T18" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="U18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF18" t="s" s="2">
+      <c r="AG18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AG18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>200</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3677,16 +3726,16 @@
         <v>84</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3700,72 +3749,72 @@
         <v>74</v>
       </c>
       <c r="T19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="U19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF19" t="s" s="2">
+      <c r="AG19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>208</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3788,15 +3837,17 @@
         <v>84</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>74</v>
@@ -3854,27 +3905,27 @@
         <v>83</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>95</v>
+        <v>214</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3897,16 +3948,16 @@
         <v>84</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3956,7 +4007,7 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -3965,27 +4016,27 @@
         <v>83</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4008,71 +4059,71 @@
         <v>84</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="P22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q22" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M22" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="P22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q22" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="R22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>224</v>
-      </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
       </c>
@@ -4080,16 +4131,16 @@
         <v>83</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>74</v>
@@ -4097,10 +4148,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4123,17 +4174,19 @@
         <v>84</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O23" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>74</v>
@@ -4182,7 +4235,7 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>83</v>
@@ -4191,27 +4244,27 @@
         <v>83</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4234,13 +4287,13 @@
         <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4291,7 +4344,7 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4306,7 +4359,7 @@
         <v>74</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
@@ -4317,14 +4370,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4343,16 +4396,16 @@
         <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>168</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4390,19 +4443,19 @@
         <v>74</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AC25" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4411,13 +4464,13 @@
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>74</v>
@@ -4428,10 +4481,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4454,16 +4507,16 @@
         <v>84</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4513,7 +4566,7 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4522,13 +4575,13 @@
         <v>83</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>74</v>
@@ -4539,10 +4592,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4565,16 +4618,16 @@
         <v>84</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4600,13 +4653,13 @@
         <v>74</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>74</v>
@@ -4624,7 +4677,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4633,13 +4686,13 @@
         <v>83</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>74</v>
@@ -4650,10 +4703,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4676,16 +4729,16 @@
         <v>84</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4735,7 +4788,7 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -4744,27 +4797,27 @@
         <v>83</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>74</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4787,13 +4840,13 @@
         <v>74</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4844,7 +4897,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -4859,7 +4912,7 @@
         <v>74</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>74</v>
@@ -4870,14 +4923,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4896,16 +4949,16 @@
         <v>74</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>168</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4943,19 +4996,19 @@
         <v>74</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AC30" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -4964,13 +5017,13 @@
         <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>74</v>
@@ -4981,10 +5034,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5007,19 +5060,19 @@
         <v>84</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>74</v>
@@ -5044,60 +5097,60 @@
         <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="Y31" t="s" s="2">
+      <c r="Z31" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="Z31" t="s" s="2">
+      <c r="AA31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AA31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF31" t="s" s="2">
+      <c r="AG31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AG31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>180</v>
-      </c>
       <c r="AL31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5120,19 +5173,19 @@
         <v>84</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>74</v>
@@ -5157,60 +5210,60 @@
         <v>74</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="Y32" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="Y32" t="s" s="2">
+      <c r="Z32" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="Z32" t="s" s="2">
+      <c r="AA32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AA32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF32" t="s" s="2">
+      <c r="AG32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>191</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5233,19 +5286,19 @@
         <v>84</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>74</v>
@@ -5258,72 +5311,72 @@
         <v>74</v>
       </c>
       <c r="T33" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="U33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF33" t="s" s="2">
+      <c r="AG33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>200</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5346,16 +5399,16 @@
         <v>84</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5369,72 +5422,72 @@
         <v>74</v>
       </c>
       <c r="T34" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF34" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="U34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF34" t="s" s="2">
+      <c r="AG34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AG34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>208</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5457,15 +5510,17 @@
         <v>84</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>74</v>
@@ -5523,27 +5578,27 @@
         <v>83</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>95</v>
+        <v>214</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5566,16 +5621,16 @@
         <v>84</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5625,7 +5680,7 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5634,27 +5689,27 @@
         <v>83</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5677,16 +5732,16 @@
         <v>84</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5736,7 +5791,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5745,13 +5800,13 @@
         <v>83</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>74</v>
@@ -5762,10 +5817,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5788,17 +5843,19 @@
         <v>84</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O38" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>74</v>
@@ -5823,29 +5880,31 @@
         <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="Y38" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="Z38" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -5854,27 +5913,27 @@
         <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5888,7 +5947,7 @@
         <v>76</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>74</v>
@@ -5897,17 +5956,19 @@
         <v>84</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="O39" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>74</v>
@@ -5956,7 +6017,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -5965,27 +6026,27 @@
         <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6008,19 +6069,19 @@
         <v>84</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>74</v>
@@ -6069,7 +6130,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6078,27 +6139,27 @@
         <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>95</v>
+        <v>301</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6121,13 +6182,13 @@
         <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6178,7 +6239,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6193,7 +6254,7 @@
         <v>74</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
@@ -6204,14 +6265,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6230,16 +6291,16 @@
         <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>168</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6277,19 +6338,19 @@
         <v>74</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AC42" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF42" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6298,13 +6359,13 @@
         <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>74</v>
@@ -6315,10 +6376,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6341,15 +6402,17 @@
         <v>84</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>74</v>
@@ -6374,13 +6437,13 @@
         <v>74</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>74</v>
@@ -6398,7 +6461,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -6407,27 +6470,27 @@
         <v>83</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6450,13 +6513,13 @@
         <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>309</v>
+        <v>164</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>310</v>
+        <v>165</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6507,7 +6570,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6522,7 +6585,7 @@
         <v>74</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>74</v>
@@ -6533,14 +6596,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6559,15 +6622,17 @@
         <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>74</v>
@@ -6604,17 +6669,19 @@
         <v>74</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AC45" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="AD45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -6623,13 +6690,13 @@
         <v>76</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>
@@ -6640,16 +6707,16 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6668,15 +6735,17 @@
         <v>74</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>74</v>
@@ -6725,7 +6794,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -6734,13 +6803,13 @@
         <v>76</v>
       </c>
       <c r="AI46" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="AJ46" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="AK46" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>74</v>
@@ -6751,10 +6820,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6777,13 +6846,13 @@
         <v>74</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6807,7 +6876,7 @@
         <v>74</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="X47" t="s" s="2">
         <v>74</v>
@@ -6834,7 +6903,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -6860,10 +6929,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6886,19 +6955,19 @@
         <v>84</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>74</v>
@@ -6947,7 +7016,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -6956,27 +7025,27 @@
         <v>83</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6999,19 +7068,19 @@
         <v>84</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>74</v>
@@ -7036,13 +7105,13 @@
         <v>74</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>74</v>
@@ -7060,7 +7129,7 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7069,27 +7138,27 @@
         <v>83</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7112,16 +7181,16 @@
         <v>84</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7171,7 +7240,7 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7180,27 +7249,27 @@
         <v>83</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>165</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7223,15 +7292,17 @@
         <v>84</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>74</v>
@@ -7280,7 +7351,7 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7289,27 +7360,27 @@
         <v>83</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>95</v>
+        <v>214</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7332,17 +7403,19 @@
         <v>84</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O52" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>74</v>
@@ -7367,13 +7440,13 @@
         <v>74</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>74</v>
@@ -7391,7 +7464,7 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -7400,27 +7473,27 @@
         <v>83</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7434,7 +7507,7 @@
         <v>83</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>74</v>
@@ -7443,13 +7516,13 @@
         <v>84</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7500,7 +7573,7 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7509,13 +7582,13 @@
         <v>83</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>74</v>
@@ -7526,10 +7599,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7543,7 +7616,7 @@
         <v>76</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>74</v>
@@ -7552,17 +7625,19 @@
         <v>84</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="O54" t="s" s="2">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>74</v>
@@ -7611,7 +7686,7 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -7620,27 +7695,27 @@
         <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7663,17 +7738,19 @@
         <v>74</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="O55" t="s" s="2">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>74</v>
@@ -7722,7 +7799,7 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -7731,27 +7808,27 @@
         <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>95</v>
+        <v>383</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>375</v>
+        <v>385</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7774,15 +7851,17 @@
         <v>74</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>74</v>
@@ -7831,7 +7910,7 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -7840,27 +7919,27 @@
         <v>83</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>95</v>
+        <v>214</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>74</v>
+        <v>391</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7883,19 +7962,19 @@
         <v>74</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>74</v>
@@ -7944,7 +8023,7 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -7953,13 +8032,13 @@
         <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>74</v>
@@ -7970,10 +8049,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7996,13 +8075,13 @@
         <v>74</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8053,7 +8132,7 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -8068,7 +8147,7 @@
         <v>74</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>74</v>
@@ -8079,14 +8158,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8105,16 +8184,16 @@
         <v>74</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>168</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8152,19 +8231,19 @@
         <v>74</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8173,13 +8252,13 @@
         <v>76</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>74</v>
@@ -8190,14 +8269,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8216,19 +8295,19 @@
         <v>84</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>74</v>
@@ -8277,7 +8356,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8286,13 +8365,13 @@
         <v>76</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>74</v>
@@ -8303,10 +8382,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8329,19 +8408,19 @@
         <v>74</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>74</v>
@@ -8366,13 +8445,13 @@
         <v>74</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>74</v>
@@ -8390,7 +8469,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>83</v>
@@ -8399,27 +8478,27 @@
         <v>83</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>74</v>
+        <v>412</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8442,19 +8521,19 @@
         <v>74</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>74</v>
@@ -8503,7 +8582,7 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -8512,13 +8591,13 @@
         <v>83</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>74</v>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T12:19:57+00:00</t>
+    <t>2024-03-25T15:09:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T15:09:50+00:00</t>
+    <t>2024-03-25T16:04:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="407">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T16:04:49+00:00</t>
+    <t>2024-03-26T07:33:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -260,7 +260,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>role</t>
@@ -307,185 +307,176 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>RelatedPerson.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>RelatedPerson.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>RelatedPerson.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>RelatedPerson.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>RelatedPerson.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>RelatedPerson.extension:contactPreference</t>
+  </si>
+  <si>
+    <t>contactPreference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/StructureDefinition/Extension-UKCore-ContactPreference}
+</t>
+  </si>
+  <si>
+    <t>The preferred method of contact, contact times and written communication format given by a Patient or Related Person.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t>RelatedPerson.extension:copyCorrespondenceIndicator</t>
+  </si>
+  <si>
+    <t>copyCorrespondenceIndicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/StructureDefinition/Extension-UKCore-CopyCorrespondenceIndicator}
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>RelatedPerson.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>RelatedPerson.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>RelatedPerson.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>RelatedPerson.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>RelatedPerson.extension</t>
+    <t>Indicator showing that a patient's contact or related person SHALL be copied in to patient correspondence</t>
+  </si>
+  <si>
+    <t>Extension carrying a boolean indicator showing that a patient's contact or related person SHALL be copied in to patient correspondence.</t>
+  </si>
+  <si>
+    <t>RelatedPerson.modifierExtension</t>
   </si>
   <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>RelatedPerson.extension:contactPreference</t>
-  </si>
-  <si>
-    <t>contactPreference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/StructureDefinition/Extension-UKCore-ContactPreference}
-</t>
-  </si>
-  <si>
-    <t>The preferred method of contact, contact times and written communication format given by a Patient or Related Person.</t>
-  </si>
-  <si>
-    <t>RelatedPerson.extension:copyCorrespondenceIndicator</t>
-  </si>
-  <si>
-    <t>copyCorrespondenceIndicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/StructureDefinition/Extension-UKCore-CopyCorrespondenceIndicator}
-</t>
-  </si>
-  <si>
-    <t>Indicator showing that a patient's contact or related person SHALL be copied in to patient correspondence</t>
-  </si>
-  <si>
-    <t>Extension carrying a boolean indicator showing that a patient's contact or related person SHALL be copied in to patient correspondence.</t>
-  </si>
-  <si>
-    <t>RelatedPerson.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -493,6 +484,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -540,10 +534,19 @@
     <t>Element.id</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>RelatedPerson.identifier.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -677,15 +680,7 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
     <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>Role.effectiveTime or implied by context</t>
@@ -713,10 +708,6 @@
     <t>Identifier.assigner</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
     <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
@@ -764,9 +755,6 @@
     <t>The patient this person is related to.</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
     <t>We need to know which patient this RelatedPerson is related to.</t>
   </si>
   <si>
@@ -797,8 +785,8 @@
     <t>Reference.reference</t>
   </si>
   <si>
-    <t>ele-1
-ref-1</t>
+    <t xml:space="preserve">ref-1
+</t>
   </si>
   <si>
     <t>RelatedPerson.patient.type</t>
@@ -844,9 +832,6 @@
     <t>.identifier</t>
   </si>
   <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
     <t>RelatedPerson.patient.identifier.id</t>
   </si>
   <si>
@@ -893,9 +878,6 @@
   </si>
   <si>
     <t>The nature of the relationship between a patient and the related person.</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
     <t>We need to know the relationship with the patient since it influences the interpretation of the information attributed to this person.</t>
@@ -926,9 +908,6 @@
     <t>A name associated with the person.</t>
   </si>
   <si>
-    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
-  </si>
-  <si>
     <t>Related persons need to be identified by name, but it is uncommon to need details about multiple other names for that person.</t>
   </si>
   <si>
@@ -957,10 +936,6 @@
     <t>People have (primary) ways to contact them in some way such as phone, email.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
-  </si>
-  <si>
     <t>telecom</t>
   </si>
   <si>
@@ -982,9 +957,6 @@
     <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
     <t>Telecommunications form for contact point.</t>
   </si>
   <si>
@@ -994,8 +966,8 @@
     <t>ContactPoint.system</t>
   </si>
   <si>
-    <t>ele-1
-cpt-2</t>
+    <t xml:space="preserve">cpt-2
+</t>
   </si>
   <si>
     <t>./scheme</t>
@@ -1005,6 +977,12 @@
   </si>
   <si>
     <t>RelatedPerson.telecom.system.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
   </si>
   <si>
     <t>RelatedPerson.telecom.system.extension</t>
@@ -1032,9 +1010,6 @@
     <t>Primitive value for code</t>
   </si>
   <si>
-    <t>1048576</t>
-  </si>
-  <si>
     <t>string.value</t>
   </si>
   <si>
@@ -1179,9 +1154,6 @@
     <t>Address where the related person can be contacted or visited.</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
-  </si>
-  <si>
     <t>Need to keep track where the related person can be contacted per postal mail or visited.</t>
   </si>
   <si>
@@ -1204,16 +1176,9 @@
     <t>Image of the person.</t>
   </si>
   <si>
-    <t>When providing a summary view (for example with Observation.value[x]) Attachment should be represented with a brief display text such as "Signed Procedure Consent".</t>
-  </si>
-  <si>
     <t>Many EHR systems have the capability to capture an image of persons. Fits with newer social media usage too.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-att-1:If the Attachment has data, it SHALL have a contentType {data.empty() or contentType.exists()}</t>
-  </si>
-  <si>
     <t>player[classCode='PSN' and determinerCode='INSTANCE']/desc</t>
   </si>
   <si>
@@ -1233,9 +1198,6 @@
   </si>
   <si>
     <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>DR</t>
   </si>
   <si>
     <t>RelatedPerson.communication</t>
@@ -1299,9 +1261,6 @@
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/languageCommunication/code</t>
-  </si>
-  <si>
-    <t>CE/CNE/CWE</t>
   </si>
   <si>
     <t>RelatedPerson.communication.preferred</t>
@@ -1646,17 +1605,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.43359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="28.0234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.8046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.68359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="27.625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.12890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="94.6171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1665,25 +1624,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.23046875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="37.69140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.48046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="36.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="99.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="60.5" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="99.8984375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.79296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2119,13 +2078,13 @@
         <v>83</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK4" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>74</v>
@@ -2136,10 +2095,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2162,16 +2121,16 @@
         <v>84</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2221,7 +2180,7 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
@@ -2230,13 +2189,13 @@
         <v>83</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ5" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK5" t="s" s="2">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>74</v>
@@ -2247,10 +2206,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2273,16 +2232,16 @@
         <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2308,32 +2267,32 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Y6" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>113</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
       </c>
@@ -2341,13 +2300,13 @@
         <v>83</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ6" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK6" t="s" s="2">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>74</v>
@@ -2358,14 +2317,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2384,16 +2343,16 @@
         <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2443,7 +2402,7 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
@@ -2452,13 +2411,13 @@
         <v>83</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK7" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>74</v>
@@ -2469,14 +2428,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2495,16 +2454,16 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2554,7 +2513,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -2569,7 +2528,7 @@
         <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>74</v>
@@ -2580,14 +2539,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2606,17 +2565,15 @@
         <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>74</v>
@@ -2653,19 +2610,17 @@
         <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -2674,13 +2629,13 @@
         <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>74</v>
@@ -2691,16 +2646,16 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2719,17 +2674,15 @@
         <v>74</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -2778,7 +2731,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2787,13 +2740,13 @@
         <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>74</v>
@@ -2804,16 +2757,16 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2832,17 +2785,15 @@
         <v>74</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>74</v>
@@ -2891,7 +2842,7 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2900,13 +2851,13 @@
         <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>74</v>
@@ -2917,14 +2868,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2943,19 +2894,19 @@
         <v>74</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O12" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>74</v>
@@ -2992,19 +2943,19 @@
         <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -3013,13 +2964,13 @@
         <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>74</v>
@@ -3030,10 +2981,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3056,17 +3007,17 @@
         <v>84</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>74</v>
@@ -3115,7 +3066,7 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -3124,27 +3075,27 @@
         <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ13" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>161</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3167,13 +3118,13 @@
         <v>74</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3224,7 +3175,7 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -3239,7 +3190,7 @@
         <v>74</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>74</v>
@@ -3250,14 +3201,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3276,16 +3227,16 @@
         <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>168</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3323,19 +3274,19 @@
         <v>74</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -3344,13 +3295,13 @@
         <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>74</v>
@@ -3361,10 +3312,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3387,19 +3338,19 @@
         <v>84</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>74</v>
@@ -3424,13 +3375,13 @@
         <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>74</v>
@@ -3448,7 +3399,7 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -3457,27 +3408,27 @@
         <v>83</v>
       </c>
       <c r="AI16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ16" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3500,19 +3451,19 @@
         <v>84</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>74</v>
@@ -3537,13 +3488,13 @@
         <v>74</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>74</v>
@@ -3561,7 +3512,7 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -3570,27 +3521,27 @@
         <v>83</v>
       </c>
       <c r="AI17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ17" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3613,19 +3564,19 @@
         <v>84</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>74</v>
@@ -3638,7 +3589,7 @@
         <v>74</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>74</v>
@@ -3674,7 +3625,7 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -3683,27 +3634,27 @@
         <v>83</v>
       </c>
       <c r="AI18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ18" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3726,16 +3677,16 @@
         <v>84</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3749,7 +3700,7 @@
         <v>74</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>74</v>
@@ -3785,7 +3736,7 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -3794,27 +3745,27 @@
         <v>83</v>
       </c>
       <c r="AI19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ19" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3837,17 +3788,15 @@
         <v>84</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N20" t="s" s="2">
         <v>212</v>
       </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>74</v>
@@ -3905,27 +3854,27 @@
         <v>83</v>
       </c>
       <c r="AI20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ20" t="s" s="2">
+      <c r="AK20" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>216</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3948,16 +3897,16 @@
         <v>84</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4007,36 +3956,36 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>225</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4059,88 +4008,88 @@
         <v>84</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="P22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q22" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="O22" t="s" s="2">
+      <c r="R22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="P22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="R22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>74</v>
@@ -4148,10 +4097,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4174,19 +4123,17 @@
         <v>84</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>74</v>
@@ -4235,7 +4182,7 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>83</v>
@@ -4244,27 +4191,27 @@
         <v>83</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ23" t="s" s="2">
-        <v>223</v>
-      </c>
       <c r="AK23" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4287,13 +4234,13 @@
         <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4344,7 +4291,7 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4359,7 +4306,7 @@
         <v>74</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
@@ -4370,14 +4317,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4396,16 +4343,16 @@
         <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>168</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4443,19 +4390,19 @@
         <v>74</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4464,13 +4411,13 @@
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>74</v>
@@ -4481,10 +4428,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4507,16 +4454,16 @@
         <v>84</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4566,7 +4513,7 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4575,13 +4522,13 @@
         <v>83</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>74</v>
@@ -4592,10 +4539,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4618,16 +4565,16 @@
         <v>84</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4653,13 +4600,13 @@
         <v>74</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>74</v>
@@ -4677,7 +4624,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4686,13 +4633,13 @@
         <v>83</v>
       </c>
       <c r="AI27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ27" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK27" t="s" s="2">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>74</v>
@@ -4703,10 +4650,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4729,16 +4676,16 @@
         <v>84</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4788,7 +4735,7 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -4797,27 +4744,27 @@
         <v>83</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ28" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK28" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>264</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4840,13 +4787,13 @@
         <v>74</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4897,7 +4844,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -4912,7 +4859,7 @@
         <v>74</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>74</v>
@@ -4923,14 +4870,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4949,16 +4896,16 @@
         <v>74</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>168</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4996,19 +4943,19 @@
         <v>74</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -5017,13 +4964,13 @@
         <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>74</v>
@@ -5034,10 +4981,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5060,19 +5007,19 @@
         <v>84</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>74</v>
@@ -5097,13 +5044,13 @@
         <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>74</v>
@@ -5121,7 +5068,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5130,27 +5077,27 @@
         <v>83</v>
       </c>
       <c r="AI31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ31" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK31" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5173,19 +5120,19 @@
         <v>84</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>74</v>
@@ -5210,13 +5157,13 @@
         <v>74</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>74</v>
@@ -5234,7 +5181,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5243,27 +5190,27 @@
         <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ32" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK32" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5286,19 +5233,19 @@
         <v>84</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>74</v>
@@ -5311,7 +5258,7 @@
         <v>74</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>74</v>
@@ -5347,7 +5294,7 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5356,27 +5303,27 @@
         <v>83</v>
       </c>
       <c r="AI33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ33" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK33" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5399,16 +5346,16 @@
         <v>84</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5422,7 +5369,7 @@
         <v>74</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>74</v>
@@ -5458,7 +5405,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5467,27 +5414,27 @@
         <v>83</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ34" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK34" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5510,17 +5457,15 @@
         <v>84</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N35" t="s" s="2">
         <v>212</v>
       </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>74</v>
@@ -5578,27 +5523,27 @@
         <v>83</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ35" t="s" s="2">
+      <c r="AK35" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>216</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5621,16 +5566,16 @@
         <v>84</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5680,36 +5625,36 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>225</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5732,16 +5677,16 @@
         <v>84</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5791,7 +5736,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5800,13 +5745,13 @@
         <v>83</v>
       </c>
       <c r="AI37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ37" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK37" t="s" s="2">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>74</v>
@@ -5817,10 +5762,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5843,19 +5788,17 @@
         <v>84</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>74</v>
@@ -5880,13 +5823,11 @@
         <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>74</v>
@@ -5904,7 +5845,7 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -5913,27 +5854,27 @@
         <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ38" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK38" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5956,19 +5897,17 @@
         <v>84</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>74</v>
@@ -6017,7 +5956,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -6026,27 +5965,27 @@
         <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ39" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK39" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6069,19 +6008,19 @@
         <v>84</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>74</v>
@@ -6130,7 +6069,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6139,27 +6078,27 @@
         <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ40" t="s" s="2">
-        <v>301</v>
-      </c>
       <c r="AK40" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6182,13 +6121,13 @@
         <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6239,7 +6178,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6254,7 +6193,7 @@
         <v>74</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
@@ -6265,14 +6204,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6291,16 +6230,16 @@
         <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>168</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6338,19 +6277,19 @@
         <v>74</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6359,13 +6298,13 @@
         <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>74</v>
@@ -6376,10 +6315,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6402,17 +6341,15 @@
         <v>84</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>74</v>
@@ -6437,13 +6374,13 @@
         <v>74</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>74</v>
@@ -6461,7 +6398,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -6470,27 +6407,27 @@
         <v>83</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6513,13 +6450,13 @@
         <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>164</v>
+        <v>309</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6570,7 +6507,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6585,7 +6522,7 @@
         <v>74</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>74</v>
@@ -6596,14 +6533,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6622,17 +6559,15 @@
         <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>74</v>
@@ -6669,19 +6604,17 @@
         <v>74</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AC45" s="2"/>
       <c r="AD45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -6690,13 +6623,13 @@
         <v>76</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>
@@ -6707,16 +6640,16 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6735,17 +6668,15 @@
         <v>74</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>74</v>
@@ -6794,7 +6725,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -6803,13 +6734,13 @@
         <v>76</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>74</v>
@@ -6820,10 +6751,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6846,13 +6777,13 @@
         <v>74</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6876,7 +6807,7 @@
         <v>74</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>325</v>
+        <v>74</v>
       </c>
       <c r="X47" t="s" s="2">
         <v>74</v>
@@ -6903,7 +6834,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -6929,10 +6860,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6955,19 +6886,19 @@
         <v>84</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>74</v>
@@ -7016,7 +6947,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7025,27 +6956,27 @@
         <v>83</v>
       </c>
       <c r="AI48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ48" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK48" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7068,19 +6999,19 @@
         <v>84</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>74</v>
@@ -7105,13 +7036,13 @@
         <v>74</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>74</v>
@@ -7129,7 +7060,7 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7138,27 +7069,27 @@
         <v>83</v>
       </c>
       <c r="AI49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ49" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK49" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7181,16 +7112,16 @@
         <v>84</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7240,7 +7171,7 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7249,27 +7180,27 @@
         <v>83</v>
       </c>
       <c r="AI50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ50" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK50" t="s" s="2">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>104</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7292,17 +7223,15 @@
         <v>84</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>74</v>
@@ -7351,7 +7280,7 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7360,27 +7289,27 @@
         <v>83</v>
       </c>
       <c r="AI51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ51" t="s" s="2">
-        <v>214</v>
-      </c>
       <c r="AK51" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7403,19 +7332,17 @@
         <v>84</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>74</v>
@@ -7440,13 +7367,13 @@
         <v>74</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>74</v>
@@ -7464,36 +7391,36 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>363</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7516,13 +7443,13 @@
         <v>84</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7573,7 +7500,7 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7582,13 +7509,13 @@
         <v>83</v>
       </c>
       <c r="AI53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ53" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK53" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>74</v>
@@ -7599,10 +7526,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7625,19 +7552,17 @@
         <v>84</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>74</v>
@@ -7686,7 +7611,7 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -7695,27 +7620,27 @@
         <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ54" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK54" t="s" s="2">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7738,19 +7663,17 @@
         <v>74</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>74</v>
@@ -7799,7 +7722,7 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -7808,27 +7731,27 @@
         <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ55" t="s" s="2">
-        <v>383</v>
-      </c>
       <c r="AK55" t="s" s="2">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7851,17 +7774,15 @@
         <v>74</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>74</v>
@@ -7910,7 +7831,7 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -7919,27 +7840,27 @@
         <v>83</v>
       </c>
       <c r="AI56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ56" t="s" s="2">
-        <v>214</v>
-      </c>
       <c r="AK56" t="s" s="2">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>391</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7962,19 +7883,19 @@
         <v>74</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>74</v>
@@ -8023,7 +7944,7 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -8032,13 +7953,13 @@
         <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ57" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK57" t="s" s="2">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>74</v>
@@ -8049,10 +7970,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8075,13 +7996,13 @@
         <v>74</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8132,7 +8053,7 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -8147,7 +8068,7 @@
         <v>74</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>74</v>
@@ -8158,14 +8079,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8184,16 +8105,16 @@
         <v>74</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>168</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8231,19 +8152,19 @@
         <v>74</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8252,13 +8173,13 @@
         <v>76</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>74</v>
@@ -8269,14 +8190,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8295,19 +8216,19 @@
         <v>84</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>74</v>
@@ -8356,7 +8277,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8365,13 +8286,13 @@
         <v>76</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>74</v>
@@ -8382,10 +8303,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8408,19 +8329,19 @@
         <v>74</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>74</v>
@@ -8445,13 +8366,13 @@
         <v>74</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>74</v>
@@ -8469,7 +8390,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>83</v>
@@ -8478,27 +8399,27 @@
         <v>83</v>
       </c>
       <c r="AI61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ61" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK61" t="s" s="2">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>412</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8521,19 +8442,19 @@
         <v>74</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>74</v>
@@ -8582,7 +8503,7 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -8591,13 +8512,13 @@
         <v>83</v>
       </c>
       <c r="AI62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ62" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK62" t="s" s="2">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>74</v>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="419">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T07:33:19+00:00</t>
+    <t>2024-03-26T12:37:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -260,7 +260,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
   </si>
   <si>
     <t>role</t>
@@ -307,10 +307,17 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>RelatedPerson.implicitRules</t>
   </si>
   <si>
@@ -330,6 +337,9 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>RelatedPerson.language</t>
   </si>
   <si>
@@ -407,26 +417,33 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>RelatedPerson.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
   </si>
   <si>
@@ -450,10 +467,6 @@
     <t>The preferred method of contact, contact times and written communication format given by a Patient or Related Person.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>RelatedPerson.extension:copyCorrespondenceIndicator</t>
   </si>
   <si>
@@ -473,10 +486,6 @@
     <t>RelatedPerson.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -484,9 +493,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -534,19 +540,10 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>RelatedPerson.identifier.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -680,7 +677,15 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
     <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>Role.effectiveTime or implied by context</t>
@@ -708,6 +713,10 @@
     <t>Identifier.assigner</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+  </si>
+  <si>
     <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
@@ -755,6 +764,9 @@
     <t>The patient this person is related to.</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
     <t>We need to know which patient this RelatedPerson is related to.</t>
   </si>
   <si>
@@ -785,8 +797,8 @@
     <t>Reference.reference</t>
   </si>
   <si>
-    <t xml:space="preserve">ref-1
-</t>
+    <t>ele-1
+ref-1</t>
   </si>
   <si>
     <t>RelatedPerson.patient.type</t>
@@ -832,6 +844,9 @@
     <t>.identifier</t>
   </si>
   <si>
+    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+  </si>
+  <si>
     <t>RelatedPerson.patient.identifier.id</t>
   </si>
   <si>
@@ -878,6 +893,9 @@
   </si>
   <si>
     <t>The nature of the relationship between a patient and the related person.</t>
+  </si>
+  <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
     <t>We need to know the relationship with the patient since it influences the interpretation of the information attributed to this person.</t>
@@ -908,6 +926,9 @@
     <t>A name associated with the person.</t>
   </si>
   <si>
+    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
+  </si>
+  <si>
     <t>Related persons need to be identified by name, but it is uncommon to need details about multiple other names for that person.</t>
   </si>
   <si>
@@ -936,6 +957,10 @@
     <t>People have (primary) ways to contact them in some way such as phone, email.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
+  </si>
+  <si>
     <t>telecom</t>
   </si>
   <si>
@@ -957,6 +982,9 @@
     <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
   </si>
   <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
     <t>Telecommunications form for contact point.</t>
   </si>
   <si>
@@ -966,8 +994,8 @@
     <t>ContactPoint.system</t>
   </si>
   <si>
-    <t xml:space="preserve">cpt-2
-</t>
+    <t>ele-1
+cpt-2</t>
   </si>
   <si>
     <t>./scheme</t>
@@ -977,12 +1005,6 @@
   </si>
   <si>
     <t>RelatedPerson.telecom.system.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references)</t>
   </si>
   <si>
     <t>RelatedPerson.telecom.system.extension</t>
@@ -1010,6 +1032,9 @@
     <t>Primitive value for code</t>
   </si>
   <si>
+    <t>1048576</t>
+  </si>
+  <si>
     <t>string.value</t>
   </si>
   <si>
@@ -1154,6 +1179,9 @@
     <t>Address where the related person can be contacted or visited.</t>
   </si>
   <si>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+  </si>
+  <si>
     <t>Need to keep track where the related person can be contacted per postal mail or visited.</t>
   </si>
   <si>
@@ -1176,9 +1204,16 @@
     <t>Image of the person.</t>
   </si>
   <si>
+    <t>When providing a summary view (for example with Observation.value[x]) Attachment should be represented with a brief display text such as "Signed Procedure Consent".</t>
+  </si>
+  <si>
     <t>Many EHR systems have the capability to capture an image of persons. Fits with newer social media usage too.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+att-1:If the Attachment has data, it SHALL have a contentType {data.empty() or contentType.exists()}</t>
+  </si>
+  <si>
     <t>player[classCode='PSN' and determinerCode='INSTANCE']/desc</t>
   </si>
   <si>
@@ -1198,6 +1233,9 @@
   </si>
   <si>
     <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>DR</t>
   </si>
   <si>
     <t>RelatedPerson.communication</t>
@@ -1261,6 +1299,9 @@
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/languageCommunication/code</t>
+  </si>
+  <si>
+    <t>CE/CNE/CWE</t>
   </si>
   <si>
     <t>RelatedPerson.communication.preferred</t>
@@ -1605,17 +1646,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.8046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.68359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.43359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="28.0234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.6171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="94.12890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1624,25 +1665,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.48046875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="36.79296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.23046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="37.69140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.79296875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="99.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="60.5" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2078,13 +2119,13 @@
         <v>83</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>74</v>
@@ -2095,10 +2136,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2121,16 +2162,16 @@
         <v>84</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2180,7 +2221,7 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
@@ -2189,13 +2230,13 @@
         <v>83</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>74</v>
@@ -2206,10 +2247,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2232,16 +2273,16 @@
         <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2267,13 +2308,13 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>74</v>
@@ -2291,7 +2332,7 @@
         <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
@@ -2300,13 +2341,13 @@
         <v>83</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>74</v>
@@ -2317,14 +2358,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2343,16 +2384,16 @@
         <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2402,7 +2443,7 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
@@ -2411,13 +2452,13 @@
         <v>83</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>74</v>
@@ -2428,14 +2469,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2454,16 +2495,16 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2513,7 +2554,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -2528,7 +2569,7 @@
         <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>74</v>
@@ -2539,14 +2580,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2565,15 +2606,17 @@
         <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>74</v>
@@ -2610,17 +2653,19 @@
         <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -2629,13 +2674,13 @@
         <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>74</v>
@@ -2646,16 +2691,16 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2674,15 +2719,17 @@
         <v>74</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -2731,7 +2778,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2740,13 +2787,13 @@
         <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="AJ10" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="AK10" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>74</v>
@@ -2757,16 +2804,16 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2785,15 +2832,17 @@
         <v>74</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>74</v>
@@ -2842,7 +2891,7 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2851,13 +2900,13 @@
         <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="AJ11" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="AK11" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>74</v>
@@ -2868,14 +2917,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2894,19 +2943,19 @@
         <v>74</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>74</v>
@@ -2943,19 +2992,19 @@
         <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -2964,13 +3013,13 @@
         <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>74</v>
@@ -2981,10 +3030,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3007,17 +3056,17 @@
         <v>84</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>74</v>
@@ -3066,7 +3115,7 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -3075,27 +3124,27 @@
         <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3118,13 +3167,13 @@
         <v>74</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3175,7 +3224,7 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -3190,7 +3239,7 @@
         <v>74</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>74</v>
@@ -3201,14 +3250,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3227,16 +3276,16 @@
         <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>168</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3274,19 +3323,19 @@
         <v>74</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AC15" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -3295,13 +3344,13 @@
         <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>74</v>
@@ -3312,10 +3361,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3338,19 +3387,19 @@
         <v>84</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>74</v>
@@ -3375,60 +3424,60 @@
         <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="Z16" t="s" s="2">
+      <c r="AA16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AA16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF16" t="s" s="2">
+      <c r="AG16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AG16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>180</v>
-      </c>
       <c r="AL16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3451,19 +3500,19 @@
         <v>84</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>74</v>
@@ -3488,60 +3537,60 @@
         <v>74</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="Z17" t="s" s="2">
+      <c r="AA17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AA17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF17" t="s" s="2">
+      <c r="AG17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>191</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3564,19 +3613,19 @@
         <v>84</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>74</v>
@@ -3589,72 +3638,72 @@
         <v>74</v>
       </c>
       <c r="T18" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="U18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF18" t="s" s="2">
+      <c r="AG18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AG18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>200</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3677,16 +3726,16 @@
         <v>84</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3700,72 +3749,72 @@
         <v>74</v>
       </c>
       <c r="T19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="U19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF19" t="s" s="2">
+      <c r="AG19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>208</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3788,15 +3837,17 @@
         <v>84</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>74</v>
@@ -3854,27 +3905,27 @@
         <v>83</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>95</v>
+        <v>214</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3897,16 +3948,16 @@
         <v>84</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3956,7 +4007,7 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -3965,27 +4016,27 @@
         <v>83</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4008,71 +4059,71 @@
         <v>84</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="P22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q22" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M22" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="P22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q22" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="R22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>224</v>
-      </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
       </c>
@@ -4080,16 +4131,16 @@
         <v>83</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>74</v>
@@ -4097,10 +4148,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4123,17 +4174,19 @@
         <v>84</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O23" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>74</v>
@@ -4182,7 +4235,7 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>83</v>
@@ -4191,27 +4244,27 @@
         <v>83</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4234,13 +4287,13 @@
         <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4291,7 +4344,7 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4306,7 +4359,7 @@
         <v>74</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
@@ -4317,14 +4370,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4343,16 +4396,16 @@
         <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>168</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4390,19 +4443,19 @@
         <v>74</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AC25" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4411,13 +4464,13 @@
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>74</v>
@@ -4428,10 +4481,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4454,16 +4507,16 @@
         <v>84</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4513,7 +4566,7 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4522,13 +4575,13 @@
         <v>83</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>74</v>
@@ -4539,10 +4592,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4565,16 +4618,16 @@
         <v>84</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4600,13 +4653,13 @@
         <v>74</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>74</v>
@@ -4624,7 +4677,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4633,13 +4686,13 @@
         <v>83</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>74</v>
@@ -4650,10 +4703,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4676,16 +4729,16 @@
         <v>84</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4735,7 +4788,7 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -4744,27 +4797,27 @@
         <v>83</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>74</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4787,13 +4840,13 @@
         <v>74</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4844,7 +4897,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -4859,7 +4912,7 @@
         <v>74</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>74</v>
@@ -4870,14 +4923,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4896,16 +4949,16 @@
         <v>74</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>168</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4943,19 +4996,19 @@
         <v>74</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AC30" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -4964,13 +5017,13 @@
         <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>74</v>
@@ -4981,10 +5034,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5007,19 +5060,19 @@
         <v>84</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>74</v>
@@ -5044,60 +5097,60 @@
         <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="Y31" t="s" s="2">
+      <c r="Z31" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="Z31" t="s" s="2">
+      <c r="AA31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AA31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF31" t="s" s="2">
+      <c r="AG31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AG31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>180</v>
-      </c>
       <c r="AL31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5120,19 +5173,19 @@
         <v>84</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>74</v>
@@ -5157,60 +5210,60 @@
         <v>74</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="Y32" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="Y32" t="s" s="2">
+      <c r="Z32" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="Z32" t="s" s="2">
+      <c r="AA32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AA32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF32" t="s" s="2">
+      <c r="AG32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>191</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5233,19 +5286,19 @@
         <v>84</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>74</v>
@@ -5258,72 +5311,72 @@
         <v>74</v>
       </c>
       <c r="T33" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="U33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF33" t="s" s="2">
+      <c r="AG33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>200</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5346,16 +5399,16 @@
         <v>84</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5369,72 +5422,72 @@
         <v>74</v>
       </c>
       <c r="T34" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF34" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="U34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF34" t="s" s="2">
+      <c r="AG34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AG34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>208</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5457,15 +5510,17 @@
         <v>84</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>74</v>
@@ -5523,27 +5578,27 @@
         <v>83</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>95</v>
+        <v>214</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5566,16 +5621,16 @@
         <v>84</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5625,7 +5680,7 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5634,27 +5689,27 @@
         <v>83</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5677,16 +5732,16 @@
         <v>84</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5736,7 +5791,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5745,13 +5800,13 @@
         <v>83</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>74</v>
@@ -5762,10 +5817,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5788,17 +5843,19 @@
         <v>84</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O38" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>74</v>
@@ -5823,29 +5880,31 @@
         <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="Y38" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="Z38" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -5854,27 +5913,27 @@
         <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5897,17 +5956,19 @@
         <v>84</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="O39" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>74</v>
@@ -5956,7 +6017,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -5965,27 +6026,27 @@
         <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6008,19 +6069,19 @@
         <v>84</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>74</v>
@@ -6069,7 +6130,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6078,27 +6139,27 @@
         <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>95</v>
+        <v>301</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6121,13 +6182,13 @@
         <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6178,7 +6239,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6193,7 +6254,7 @@
         <v>74</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
@@ -6204,14 +6265,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6230,16 +6291,16 @@
         <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>168</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6277,19 +6338,19 @@
         <v>74</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AC42" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF42" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6298,13 +6359,13 @@
         <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>74</v>
@@ -6315,10 +6376,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6341,15 +6402,17 @@
         <v>84</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>74</v>
@@ -6374,13 +6437,13 @@
         <v>74</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>74</v>
@@ -6398,7 +6461,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -6407,27 +6470,27 @@
         <v>83</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6450,13 +6513,13 @@
         <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>309</v>
+        <v>164</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>310</v>
+        <v>165</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6507,7 +6570,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6522,7 +6585,7 @@
         <v>74</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>74</v>
@@ -6533,14 +6596,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6559,15 +6622,17 @@
         <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>74</v>
@@ -6604,17 +6669,19 @@
         <v>74</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AC45" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="AD45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -6623,13 +6690,13 @@
         <v>76</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>
@@ -6640,16 +6707,16 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6668,15 +6735,17 @@
         <v>74</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>74</v>
@@ -6725,7 +6794,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -6734,13 +6803,13 @@
         <v>76</v>
       </c>
       <c r="AI46" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="AJ46" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="AK46" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>74</v>
@@ -6751,10 +6820,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6777,13 +6846,13 @@
         <v>74</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6807,7 +6876,7 @@
         <v>74</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="X47" t="s" s="2">
         <v>74</v>
@@ -6834,7 +6903,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -6860,10 +6929,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6886,19 +6955,19 @@
         <v>84</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>74</v>
@@ -6947,7 +7016,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -6956,27 +7025,27 @@
         <v>83</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6999,19 +7068,19 @@
         <v>84</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>74</v>
@@ -7036,13 +7105,13 @@
         <v>74</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>74</v>
@@ -7060,7 +7129,7 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7069,27 +7138,27 @@
         <v>83</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7112,16 +7181,16 @@
         <v>84</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7171,7 +7240,7 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7180,27 +7249,27 @@
         <v>83</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>165</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7223,15 +7292,17 @@
         <v>84</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>74</v>
@@ -7280,7 +7351,7 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7289,27 +7360,27 @@
         <v>83</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>95</v>
+        <v>214</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7332,17 +7403,19 @@
         <v>84</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O52" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>74</v>
@@ -7367,13 +7440,13 @@
         <v>74</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>74</v>
@@ -7391,7 +7464,7 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -7400,27 +7473,27 @@
         <v>83</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7443,13 +7516,13 @@
         <v>84</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7500,7 +7573,7 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7509,13 +7582,13 @@
         <v>83</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>74</v>
@@ -7526,10 +7599,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7552,17 +7625,19 @@
         <v>84</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="O54" t="s" s="2">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>74</v>
@@ -7611,7 +7686,7 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -7620,27 +7695,27 @@
         <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7663,17 +7738,19 @@
         <v>74</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="O55" t="s" s="2">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>74</v>
@@ -7722,7 +7799,7 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -7731,27 +7808,27 @@
         <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>95</v>
+        <v>383</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>375</v>
+        <v>385</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7774,15 +7851,17 @@
         <v>74</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>74</v>
@@ -7831,7 +7910,7 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -7840,27 +7919,27 @@
         <v>83</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>95</v>
+        <v>214</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>74</v>
+        <v>391</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7883,19 +7962,19 @@
         <v>74</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>74</v>
@@ -7944,7 +8023,7 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -7953,13 +8032,13 @@
         <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>74</v>
@@ -7970,10 +8049,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7996,13 +8075,13 @@
         <v>74</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8053,7 +8132,7 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -8068,7 +8147,7 @@
         <v>74</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>74</v>
@@ -8079,14 +8158,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8105,16 +8184,16 @@
         <v>74</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>168</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8152,19 +8231,19 @@
         <v>74</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8173,13 +8252,13 @@
         <v>76</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>74</v>
@@ -8190,14 +8269,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8216,19 +8295,19 @@
         <v>84</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>74</v>
@@ -8277,7 +8356,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8286,13 +8365,13 @@
         <v>76</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>74</v>
@@ -8303,10 +8382,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8329,19 +8408,19 @@
         <v>74</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>74</v>
@@ -8366,13 +8445,13 @@
         <v>74</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>74</v>
@@ -8390,7 +8469,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>83</v>
@@ -8399,27 +8478,27 @@
         <v>83</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>74</v>
+        <v>412</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8442,19 +8521,19 @@
         <v>74</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>74</v>
@@ -8503,7 +8582,7 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -8512,13 +8591,13 @@
         <v>83</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>74</v>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T12:37:11+00:00</t>
+    <t>2024-03-26T14:28:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T14:28:58+00:00</t>
+    <t>2024-03-26T14:52:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T14:52:36+00:00</t>
+    <t>2024-03-27T10:43:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-27T10:43:47+00:00</t>
+    <t>2024-03-27T12:02:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="407">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-27T12:02:55+00:00</t>
+    <t>2024-03-28T06:59:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -260,7 +260,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>role</t>
@@ -307,185 +307,176 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>RelatedPerson.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>RelatedPerson.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>RelatedPerson.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>RelatedPerson.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>RelatedPerson.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>RelatedPerson.extension:contactPreference</t>
+  </si>
+  <si>
+    <t>contactPreference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/StructureDefinition/Extension-UKCore-ContactPreference}
+</t>
+  </si>
+  <si>
+    <t>The preferred method of contact, contact times and written communication format given by a Patient or Related Person.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t>RelatedPerson.extension:copyCorrespondenceIndicator</t>
+  </si>
+  <si>
+    <t>copyCorrespondenceIndicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/StructureDefinition/Extension-UKCore-CopyCorrespondenceIndicator}
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>RelatedPerson.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>RelatedPerson.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>RelatedPerson.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>RelatedPerson.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>RelatedPerson.extension</t>
+    <t>Indicator showing that a patient's contact or related person SHALL be copied in to patient correspondence</t>
+  </si>
+  <si>
+    <t>Extension carrying a boolean indicator showing that a patient's contact or related person SHALL be copied in to patient correspondence.</t>
+  </si>
+  <si>
+    <t>RelatedPerson.modifierExtension</t>
   </si>
   <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>RelatedPerson.extension:contactPreference</t>
-  </si>
-  <si>
-    <t>contactPreference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/StructureDefinition/Extension-UKCore-ContactPreference}
-</t>
-  </si>
-  <si>
-    <t>The preferred method of contact, contact times and written communication format given by a Patient or Related Person.</t>
-  </si>
-  <si>
-    <t>RelatedPerson.extension:copyCorrespondenceIndicator</t>
-  </si>
-  <si>
-    <t>copyCorrespondenceIndicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/StructureDefinition/Extension-UKCore-CopyCorrespondenceIndicator}
-</t>
-  </si>
-  <si>
-    <t>Indicator showing that a patient's contact or related person SHALL be copied in to patient correspondence</t>
-  </si>
-  <si>
-    <t>Extension carrying a boolean indicator showing that a patient's contact or related person SHALL be copied in to patient correspondence.</t>
-  </si>
-  <si>
-    <t>RelatedPerson.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -493,6 +484,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -540,10 +534,19 @@
     <t>Element.id</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>RelatedPerson.identifier.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -677,15 +680,7 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
     <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>Role.effectiveTime or implied by context</t>
@@ -713,10 +708,6 @@
     <t>Identifier.assigner</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
     <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
@@ -764,9 +755,6 @@
     <t>The patient this person is related to.</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
     <t>We need to know which patient this RelatedPerson is related to.</t>
   </si>
   <si>
@@ -797,8 +785,8 @@
     <t>Reference.reference</t>
   </si>
   <si>
-    <t>ele-1
-ref-1</t>
+    <t xml:space="preserve">ref-1
+</t>
   </si>
   <si>
     <t>RelatedPerson.patient.type</t>
@@ -844,9 +832,6 @@
     <t>.identifier</t>
   </si>
   <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
     <t>RelatedPerson.patient.identifier.id</t>
   </si>
   <si>
@@ -893,9 +878,6 @@
   </si>
   <si>
     <t>The nature of the relationship between a patient and the related person.</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
     <t>We need to know the relationship with the patient since it influences the interpretation of the information attributed to this person.</t>
@@ -926,9 +908,6 @@
     <t>A name associated with the person.</t>
   </si>
   <si>
-    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
-  </si>
-  <si>
     <t>Related persons need to be identified by name, but it is uncommon to need details about multiple other names for that person.</t>
   </si>
   <si>
@@ -957,10 +936,6 @@
     <t>People have (primary) ways to contact them in some way such as phone, email.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
-  </si>
-  <si>
     <t>telecom</t>
   </si>
   <si>
@@ -982,9 +957,6 @@
     <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
     <t>Telecommunications form for contact point.</t>
   </si>
   <si>
@@ -994,8 +966,8 @@
     <t>ContactPoint.system</t>
   </si>
   <si>
-    <t>ele-1
-cpt-2</t>
+    <t xml:space="preserve">cpt-2
+</t>
   </si>
   <si>
     <t>./scheme</t>
@@ -1005,6 +977,12 @@
   </si>
   <si>
     <t>RelatedPerson.telecom.system.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
   </si>
   <si>
     <t>RelatedPerson.telecom.system.extension</t>
@@ -1032,9 +1010,6 @@
     <t>Primitive value for code</t>
   </si>
   <si>
-    <t>1048576</t>
-  </si>
-  <si>
     <t>string.value</t>
   </si>
   <si>
@@ -1179,9 +1154,6 @@
     <t>Address where the related person can be contacted or visited.</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
-  </si>
-  <si>
     <t>Need to keep track where the related person can be contacted per postal mail or visited.</t>
   </si>
   <si>
@@ -1204,16 +1176,9 @@
     <t>Image of the person.</t>
   </si>
   <si>
-    <t>When providing a summary view (for example with Observation.value[x]) Attachment should be represented with a brief display text such as "Signed Procedure Consent".</t>
-  </si>
-  <si>
     <t>Many EHR systems have the capability to capture an image of persons. Fits with newer social media usage too.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-att-1:If the Attachment has data, it SHALL have a contentType {data.empty() or contentType.exists()}</t>
-  </si>
-  <si>
     <t>player[classCode='PSN' and determinerCode='INSTANCE']/desc</t>
   </si>
   <si>
@@ -1233,9 +1198,6 @@
   </si>
   <si>
     <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>DR</t>
   </si>
   <si>
     <t>RelatedPerson.communication</t>
@@ -1299,9 +1261,6 @@
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/languageCommunication/code</t>
-  </si>
-  <si>
-    <t>CE/CNE/CWE</t>
   </si>
   <si>
     <t>RelatedPerson.communication.preferred</t>
@@ -1646,17 +1605,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.43359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="28.0234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.8046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.68359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="27.625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.12890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="94.6171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1665,25 +1624,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.23046875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="37.69140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.48046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="36.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="99.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="60.5" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="99.8984375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.79296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2119,13 +2078,13 @@
         <v>83</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK4" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>74</v>
@@ -2136,10 +2095,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2162,16 +2121,16 @@
         <v>84</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2221,7 +2180,7 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
@@ -2230,13 +2189,13 @@
         <v>83</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ5" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK5" t="s" s="2">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>74</v>
@@ -2247,10 +2206,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2273,16 +2232,16 @@
         <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2308,32 +2267,32 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Y6" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>113</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
       </c>
@@ -2341,13 +2300,13 @@
         <v>83</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ6" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK6" t="s" s="2">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>74</v>
@@ -2358,14 +2317,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2384,16 +2343,16 @@
         <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2443,7 +2402,7 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
@@ -2452,13 +2411,13 @@
         <v>83</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK7" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>74</v>
@@ -2469,14 +2428,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2495,16 +2454,16 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2554,7 +2513,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -2569,7 +2528,7 @@
         <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>74</v>
@@ -2580,14 +2539,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2606,17 +2565,15 @@
         <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>74</v>
@@ -2653,19 +2610,17 @@
         <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -2674,13 +2629,13 @@
         <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>74</v>
@@ -2691,16 +2646,16 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2719,17 +2674,15 @@
         <v>74</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -2778,7 +2731,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2787,13 +2740,13 @@
         <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>74</v>
@@ -2804,16 +2757,16 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2832,17 +2785,15 @@
         <v>74</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>74</v>
@@ -2891,7 +2842,7 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2900,13 +2851,13 @@
         <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>74</v>
@@ -2917,14 +2868,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2943,19 +2894,19 @@
         <v>74</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O12" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>74</v>
@@ -2992,19 +2943,19 @@
         <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -3013,13 +2964,13 @@
         <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>74</v>
@@ -3030,10 +2981,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3056,17 +3007,17 @@
         <v>84</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>74</v>
@@ -3115,7 +3066,7 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -3124,27 +3075,27 @@
         <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ13" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>161</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3167,13 +3118,13 @@
         <v>74</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3224,7 +3175,7 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -3239,7 +3190,7 @@
         <v>74</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>74</v>
@@ -3250,14 +3201,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3276,16 +3227,16 @@
         <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>168</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3323,19 +3274,19 @@
         <v>74</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -3344,13 +3295,13 @@
         <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>74</v>
@@ -3361,10 +3312,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3387,19 +3338,19 @@
         <v>84</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>74</v>
@@ -3424,13 +3375,13 @@
         <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>74</v>
@@ -3448,7 +3399,7 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -3457,27 +3408,27 @@
         <v>83</v>
       </c>
       <c r="AI16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ16" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3500,19 +3451,19 @@
         <v>84</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>74</v>
@@ -3537,13 +3488,13 @@
         <v>74</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>74</v>
@@ -3561,7 +3512,7 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -3570,27 +3521,27 @@
         <v>83</v>
       </c>
       <c r="AI17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ17" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3613,19 +3564,19 @@
         <v>84</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>74</v>
@@ -3638,7 +3589,7 @@
         <v>74</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>74</v>
@@ -3674,7 +3625,7 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -3683,27 +3634,27 @@
         <v>83</v>
       </c>
       <c r="AI18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ18" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3726,16 +3677,16 @@
         <v>84</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3749,7 +3700,7 @@
         <v>74</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>74</v>
@@ -3785,7 +3736,7 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -3794,27 +3745,27 @@
         <v>83</v>
       </c>
       <c r="AI19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ19" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3837,17 +3788,15 @@
         <v>84</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N20" t="s" s="2">
         <v>212</v>
       </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>74</v>
@@ -3905,27 +3854,27 @@
         <v>83</v>
       </c>
       <c r="AI20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ20" t="s" s="2">
+      <c r="AK20" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>216</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3948,16 +3897,16 @@
         <v>84</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4007,36 +3956,36 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>225</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4059,88 +4008,88 @@
         <v>84</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="P22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q22" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="O22" t="s" s="2">
+      <c r="R22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="P22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="R22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>74</v>
@@ -4148,10 +4097,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4174,19 +4123,17 @@
         <v>84</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>74</v>
@@ -4235,7 +4182,7 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>83</v>
@@ -4244,27 +4191,27 @@
         <v>83</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ23" t="s" s="2">
-        <v>223</v>
-      </c>
       <c r="AK23" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4287,13 +4234,13 @@
         <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4344,7 +4291,7 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4359,7 +4306,7 @@
         <v>74</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
@@ -4370,14 +4317,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4396,16 +4343,16 @@
         <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>168</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4443,19 +4390,19 @@
         <v>74</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4464,13 +4411,13 @@
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>74</v>
@@ -4481,10 +4428,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4507,16 +4454,16 @@
         <v>84</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4566,7 +4513,7 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4575,13 +4522,13 @@
         <v>83</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>74</v>
@@ -4592,10 +4539,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4618,16 +4565,16 @@
         <v>84</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4653,13 +4600,13 @@
         <v>74</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>74</v>
@@ -4677,7 +4624,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4686,13 +4633,13 @@
         <v>83</v>
       </c>
       <c r="AI27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ27" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK27" t="s" s="2">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>74</v>
@@ -4703,10 +4650,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4729,16 +4676,16 @@
         <v>84</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4788,7 +4735,7 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -4797,27 +4744,27 @@
         <v>83</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ28" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK28" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>264</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4840,13 +4787,13 @@
         <v>74</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4897,7 +4844,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -4912,7 +4859,7 @@
         <v>74</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>74</v>
@@ -4923,14 +4870,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4949,16 +4896,16 @@
         <v>74</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>168</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4996,19 +4943,19 @@
         <v>74</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -5017,13 +4964,13 @@
         <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>74</v>
@@ -5034,10 +4981,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5060,19 +5007,19 @@
         <v>84</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>74</v>
@@ -5097,13 +5044,13 @@
         <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>74</v>
@@ -5121,7 +5068,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5130,27 +5077,27 @@
         <v>83</v>
       </c>
       <c r="AI31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ31" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK31" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5173,19 +5120,19 @@
         <v>84</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>74</v>
@@ -5210,13 +5157,13 @@
         <v>74</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>74</v>
@@ -5234,7 +5181,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5243,27 +5190,27 @@
         <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ32" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK32" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5286,19 +5233,19 @@
         <v>84</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>74</v>
@@ -5311,7 +5258,7 @@
         <v>74</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>74</v>
@@ -5347,7 +5294,7 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5356,27 +5303,27 @@
         <v>83</v>
       </c>
       <c r="AI33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ33" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK33" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5399,16 +5346,16 @@
         <v>84</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5422,7 +5369,7 @@
         <v>74</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>74</v>
@@ -5458,7 +5405,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5467,27 +5414,27 @@
         <v>83</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ34" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK34" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5510,17 +5457,15 @@
         <v>84</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N35" t="s" s="2">
         <v>212</v>
       </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>74</v>
@@ -5578,27 +5523,27 @@
         <v>83</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ35" t="s" s="2">
+      <c r="AK35" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>216</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5621,16 +5566,16 @@
         <v>84</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5680,36 +5625,36 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>225</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5732,16 +5677,16 @@
         <v>84</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5791,7 +5736,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5800,13 +5745,13 @@
         <v>83</v>
       </c>
       <c r="AI37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ37" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK37" t="s" s="2">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>74</v>
@@ -5817,10 +5762,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5843,19 +5788,17 @@
         <v>84</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>74</v>
@@ -5880,13 +5823,11 @@
         <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>74</v>
@@ -5904,7 +5845,7 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -5913,27 +5854,27 @@
         <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ38" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK38" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5956,19 +5897,17 @@
         <v>84</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>74</v>
@@ -6017,7 +5956,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -6026,27 +5965,27 @@
         <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ39" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK39" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6069,19 +6008,19 @@
         <v>84</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>74</v>
@@ -6130,7 +6069,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6139,27 +6078,27 @@
         <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ40" t="s" s="2">
-        <v>301</v>
-      </c>
       <c r="AK40" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6182,13 +6121,13 @@
         <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6239,7 +6178,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6254,7 +6193,7 @@
         <v>74</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
@@ -6265,14 +6204,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6291,16 +6230,16 @@
         <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>168</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6338,19 +6277,19 @@
         <v>74</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6359,13 +6298,13 @@
         <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>74</v>
@@ -6376,10 +6315,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6402,17 +6341,15 @@
         <v>84</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>74</v>
@@ -6437,13 +6374,13 @@
         <v>74</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>74</v>
@@ -6461,7 +6398,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -6470,27 +6407,27 @@
         <v>83</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6513,13 +6450,13 @@
         <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>164</v>
+        <v>309</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6570,7 +6507,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6585,7 +6522,7 @@
         <v>74</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>74</v>
@@ -6596,14 +6533,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6622,17 +6559,15 @@
         <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>74</v>
@@ -6669,19 +6604,17 @@
         <v>74</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AC45" s="2"/>
       <c r="AD45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -6690,13 +6623,13 @@
         <v>76</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>
@@ -6707,16 +6640,16 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6735,17 +6668,15 @@
         <v>74</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>74</v>
@@ -6794,7 +6725,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -6803,13 +6734,13 @@
         <v>76</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>74</v>
@@ -6820,10 +6751,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6846,13 +6777,13 @@
         <v>74</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6876,7 +6807,7 @@
         <v>74</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>325</v>
+        <v>74</v>
       </c>
       <c r="X47" t="s" s="2">
         <v>74</v>
@@ -6903,7 +6834,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -6929,10 +6860,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6955,19 +6886,19 @@
         <v>84</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>74</v>
@@ -7016,7 +6947,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7025,27 +6956,27 @@
         <v>83</v>
       </c>
       <c r="AI48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ48" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK48" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7068,19 +6999,19 @@
         <v>84</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>74</v>
@@ -7105,13 +7036,13 @@
         <v>74</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>74</v>
@@ -7129,7 +7060,7 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7138,27 +7069,27 @@
         <v>83</v>
       </c>
       <c r="AI49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ49" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK49" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7181,16 +7112,16 @@
         <v>84</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7240,7 +7171,7 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7249,27 +7180,27 @@
         <v>83</v>
       </c>
       <c r="AI50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ50" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK50" t="s" s="2">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>104</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7292,17 +7223,15 @@
         <v>84</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>74</v>
@@ -7351,7 +7280,7 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7360,27 +7289,27 @@
         <v>83</v>
       </c>
       <c r="AI51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ51" t="s" s="2">
-        <v>214</v>
-      </c>
       <c r="AK51" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7403,19 +7332,17 @@
         <v>84</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>74</v>
@@ -7440,13 +7367,13 @@
         <v>74</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>74</v>
@@ -7464,36 +7391,36 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>363</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7516,13 +7443,13 @@
         <v>84</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7573,7 +7500,7 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7582,13 +7509,13 @@
         <v>83</v>
       </c>
       <c r="AI53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ53" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK53" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>74</v>
@@ -7599,10 +7526,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7625,19 +7552,17 @@
         <v>84</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>74</v>
@@ -7686,7 +7611,7 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -7695,27 +7620,27 @@
         <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ54" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK54" t="s" s="2">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7738,19 +7663,17 @@
         <v>74</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>74</v>
@@ -7799,7 +7722,7 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -7808,27 +7731,27 @@
         <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ55" t="s" s="2">
-        <v>383</v>
-      </c>
       <c r="AK55" t="s" s="2">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7851,17 +7774,15 @@
         <v>74</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>74</v>
@@ -7910,7 +7831,7 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -7919,27 +7840,27 @@
         <v>83</v>
       </c>
       <c r="AI56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ56" t="s" s="2">
-        <v>214</v>
-      </c>
       <c r="AK56" t="s" s="2">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>391</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7962,19 +7883,19 @@
         <v>74</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>74</v>
@@ -8023,7 +7944,7 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -8032,13 +7953,13 @@
         <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ57" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK57" t="s" s="2">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>74</v>
@@ -8049,10 +7970,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8075,13 +7996,13 @@
         <v>74</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8132,7 +8053,7 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -8147,7 +8068,7 @@
         <v>74</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>74</v>
@@ -8158,14 +8079,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8184,16 +8105,16 @@
         <v>74</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>168</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8231,19 +8152,19 @@
         <v>74</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8252,13 +8173,13 @@
         <v>76</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>74</v>
@@ -8269,14 +8190,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8295,19 +8216,19 @@
         <v>84</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>74</v>
@@ -8356,7 +8277,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8365,13 +8286,13 @@
         <v>76</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>74</v>
@@ -8382,10 +8303,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8408,19 +8329,19 @@
         <v>74</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>74</v>
@@ -8445,13 +8366,13 @@
         <v>74</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>74</v>
@@ -8469,7 +8390,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>83</v>
@@ -8478,27 +8399,27 @@
         <v>83</v>
       </c>
       <c r="AI61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ61" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK61" t="s" s="2">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>412</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8521,19 +8442,19 @@
         <v>74</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>74</v>
@@ -8582,7 +8503,7 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -8591,13 +8512,13 @@
         <v>83</v>
       </c>
       <c r="AI62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ62" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK62" t="s" s="2">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>74</v>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T06:59:04+00:00</t>
+    <t>2024-03-28T07:27:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T07:27:12+00:00</t>
+    <t>2024-03-28T15:35:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T15:35:10+00:00</t>
+    <t>2024-04-04T07:58:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="419">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T07:58:12+01:00</t>
+    <t>2024-04-09T11:34:38+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -260,7 +260,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
   </si>
   <si>
     <t>role</t>
@@ -307,10 +307,17 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>RelatedPerson.implicitRules</t>
   </si>
   <si>
@@ -330,6 +337,9 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>RelatedPerson.language</t>
   </si>
   <si>
@@ -407,26 +417,33 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>RelatedPerson.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
   </si>
   <si>
@@ -450,10 +467,6 @@
     <t>The preferred method of contact, contact times and written communication format given by a Patient or Related Person.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>RelatedPerson.extension:copyCorrespondenceIndicator</t>
   </si>
   <si>
@@ -473,10 +486,6 @@
     <t>RelatedPerson.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -484,9 +493,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -534,19 +540,10 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>RelatedPerson.identifier.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -680,7 +677,15 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
     <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>Role.effectiveTime or implied by context</t>
@@ -708,6 +713,10 @@
     <t>Identifier.assigner</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+  </si>
+  <si>
     <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
@@ -755,6 +764,9 @@
     <t>The patient this person is related to.</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
     <t>We need to know which patient this RelatedPerson is related to.</t>
   </si>
   <si>
@@ -785,8 +797,8 @@
     <t>Reference.reference</t>
   </si>
   <si>
-    <t xml:space="preserve">ref-1
-</t>
+    <t>ele-1
+ref-1</t>
   </si>
   <si>
     <t>RelatedPerson.patient.type</t>
@@ -832,6 +844,9 @@
     <t>.identifier</t>
   </si>
   <si>
+    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+  </si>
+  <si>
     <t>RelatedPerson.patient.identifier.id</t>
   </si>
   <si>
@@ -878,6 +893,9 @@
   </si>
   <si>
     <t>The nature of the relationship between a patient and the related person.</t>
+  </si>
+  <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
     <t>We need to know the relationship with the patient since it influences the interpretation of the information attributed to this person.</t>
@@ -908,6 +926,9 @@
     <t>A name associated with the person.</t>
   </si>
   <si>
+    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
+  </si>
+  <si>
     <t>Related persons need to be identified by name, but it is uncommon to need details about multiple other names for that person.</t>
   </si>
   <si>
@@ -936,6 +957,10 @@
     <t>People have (primary) ways to contact them in some way such as phone, email.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
+  </si>
+  <si>
     <t>telecom</t>
   </si>
   <si>
@@ -957,6 +982,9 @@
     <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
   </si>
   <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
     <t>Telecommunications form for contact point.</t>
   </si>
   <si>
@@ -966,8 +994,8 @@
     <t>ContactPoint.system</t>
   </si>
   <si>
-    <t xml:space="preserve">cpt-2
-</t>
+    <t>ele-1
+cpt-2</t>
   </si>
   <si>
     <t>./scheme</t>
@@ -977,12 +1005,6 @@
   </si>
   <si>
     <t>RelatedPerson.telecom.system.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references)</t>
   </si>
   <si>
     <t>RelatedPerson.telecom.system.extension</t>
@@ -1010,6 +1032,9 @@
     <t>Primitive value for code</t>
   </si>
   <si>
+    <t>1048576</t>
+  </si>
+  <si>
     <t>string.value</t>
   </si>
   <si>
@@ -1154,6 +1179,9 @@
     <t>Address where the related person can be contacted or visited.</t>
   </si>
   <si>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+  </si>
+  <si>
     <t>Need to keep track where the related person can be contacted per postal mail or visited.</t>
   </si>
   <si>
@@ -1176,9 +1204,16 @@
     <t>Image of the person.</t>
   </si>
   <si>
+    <t>When providing a summary view (for example with Observation.value[x]) Attachment should be represented with a brief display text such as "Signed Procedure Consent".</t>
+  </si>
+  <si>
     <t>Many EHR systems have the capability to capture an image of persons. Fits with newer social media usage too.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+att-1:If the Attachment has data, it SHALL have a contentType {data.empty() or contentType.exists()}</t>
+  </si>
+  <si>
     <t>player[classCode='PSN' and determinerCode='INSTANCE']/desc</t>
   </si>
   <si>
@@ -1198,6 +1233,9 @@
   </si>
   <si>
     <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>DR</t>
   </si>
   <si>
     <t>RelatedPerson.communication</t>
@@ -1261,6 +1299,9 @@
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/languageCommunication/code</t>
+  </si>
+  <si>
+    <t>CE/CNE/CWE</t>
   </si>
   <si>
     <t>RelatedPerson.communication.preferred</t>
@@ -1605,17 +1646,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.8046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.68359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.43359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="28.0234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.6171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="94.12890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1624,25 +1665,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.48046875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="36.79296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.23046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="37.69140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.79296875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="99.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="60.5" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2078,13 +2119,13 @@
         <v>83</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>74</v>
@@ -2095,10 +2136,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2121,16 +2162,16 @@
         <v>84</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2180,7 +2221,7 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
@@ -2189,13 +2230,13 @@
         <v>83</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>74</v>
@@ -2206,10 +2247,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2232,16 +2273,16 @@
         <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2267,13 +2308,13 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>74</v>
@@ -2291,7 +2332,7 @@
         <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
@@ -2300,13 +2341,13 @@
         <v>83</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>74</v>
@@ -2317,14 +2358,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2343,16 +2384,16 @@
         <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2402,7 +2443,7 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
@@ -2411,13 +2452,13 @@
         <v>83</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>74</v>
@@ -2428,14 +2469,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2454,16 +2495,16 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2513,7 +2554,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -2528,7 +2569,7 @@
         <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>74</v>
@@ -2539,14 +2580,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2565,15 +2606,17 @@
         <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>74</v>
@@ -2610,17 +2653,19 @@
         <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -2629,13 +2674,13 @@
         <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>74</v>
@@ -2646,16 +2691,16 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2674,15 +2719,17 @@
         <v>74</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -2731,7 +2778,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2740,13 +2787,13 @@
         <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="AJ10" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="AK10" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>74</v>
@@ -2757,16 +2804,16 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2785,15 +2832,17 @@
         <v>74</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>74</v>
@@ -2842,7 +2891,7 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2851,13 +2900,13 @@
         <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="AJ11" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="AK11" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>74</v>
@@ -2868,14 +2917,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2894,19 +2943,19 @@
         <v>74</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>74</v>
@@ -2943,19 +2992,19 @@
         <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -2964,13 +3013,13 @@
         <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>74</v>
@@ -2981,10 +3030,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3007,17 +3056,17 @@
         <v>84</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>74</v>
@@ -3066,7 +3115,7 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -3075,27 +3124,27 @@
         <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3118,13 +3167,13 @@
         <v>74</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3175,7 +3224,7 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -3190,7 +3239,7 @@
         <v>74</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>74</v>
@@ -3201,14 +3250,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3227,16 +3276,16 @@
         <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>168</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3274,19 +3323,19 @@
         <v>74</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AC15" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -3295,13 +3344,13 @@
         <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>74</v>
@@ -3312,10 +3361,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3338,19 +3387,19 @@
         <v>84</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>74</v>
@@ -3375,60 +3424,60 @@
         <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="Z16" t="s" s="2">
+      <c r="AA16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AA16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF16" t="s" s="2">
+      <c r="AG16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AG16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>180</v>
-      </c>
       <c r="AL16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3451,19 +3500,19 @@
         <v>84</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>74</v>
@@ -3488,60 +3537,60 @@
         <v>74</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="Z17" t="s" s="2">
+      <c r="AA17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AA17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF17" t="s" s="2">
+      <c r="AG17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>191</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3564,19 +3613,19 @@
         <v>84</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>74</v>
@@ -3589,72 +3638,72 @@
         <v>74</v>
       </c>
       <c r="T18" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="U18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF18" t="s" s="2">
+      <c r="AG18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AG18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>200</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3677,16 +3726,16 @@
         <v>84</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3700,72 +3749,72 @@
         <v>74</v>
       </c>
       <c r="T19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="U19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF19" t="s" s="2">
+      <c r="AG19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>208</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3788,15 +3837,17 @@
         <v>84</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>74</v>
@@ -3854,27 +3905,27 @@
         <v>83</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>95</v>
+        <v>214</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3897,16 +3948,16 @@
         <v>84</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3956,7 +4007,7 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -3965,27 +4016,27 @@
         <v>83</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4008,71 +4059,71 @@
         <v>84</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="P22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q22" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M22" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="P22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q22" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="R22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>224</v>
-      </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
       </c>
@@ -4080,16 +4131,16 @@
         <v>83</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>74</v>
@@ -4097,10 +4148,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4123,17 +4174,19 @@
         <v>84</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O23" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>74</v>
@@ -4182,7 +4235,7 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>83</v>
@@ -4191,27 +4244,27 @@
         <v>83</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4234,13 +4287,13 @@
         <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4291,7 +4344,7 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4306,7 +4359,7 @@
         <v>74</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
@@ -4317,14 +4370,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4343,16 +4396,16 @@
         <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>168</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4390,19 +4443,19 @@
         <v>74</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AC25" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4411,13 +4464,13 @@
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>74</v>
@@ -4428,10 +4481,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4454,16 +4507,16 @@
         <v>84</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4513,7 +4566,7 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4522,13 +4575,13 @@
         <v>83</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>74</v>
@@ -4539,10 +4592,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4565,16 +4618,16 @@
         <v>84</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4600,13 +4653,13 @@
         <v>74</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>74</v>
@@ -4624,7 +4677,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4633,13 +4686,13 @@
         <v>83</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>74</v>
@@ -4650,10 +4703,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4676,16 +4729,16 @@
         <v>84</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4735,7 +4788,7 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -4744,27 +4797,27 @@
         <v>83</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>74</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4787,13 +4840,13 @@
         <v>74</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4844,7 +4897,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -4859,7 +4912,7 @@
         <v>74</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>74</v>
@@ -4870,14 +4923,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4896,16 +4949,16 @@
         <v>74</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>168</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4943,19 +4996,19 @@
         <v>74</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AC30" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -4964,13 +5017,13 @@
         <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>74</v>
@@ -4981,10 +5034,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5007,19 +5060,19 @@
         <v>84</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>74</v>
@@ -5044,60 +5097,60 @@
         <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="Y31" t="s" s="2">
+      <c r="Z31" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="Z31" t="s" s="2">
+      <c r="AA31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AA31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF31" t="s" s="2">
+      <c r="AG31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AG31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>180</v>
-      </c>
       <c r="AL31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5120,19 +5173,19 @@
         <v>84</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>74</v>
@@ -5157,60 +5210,60 @@
         <v>74</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="Y32" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="Y32" t="s" s="2">
+      <c r="Z32" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="Z32" t="s" s="2">
+      <c r="AA32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AA32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF32" t="s" s="2">
+      <c r="AG32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>191</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5233,19 +5286,19 @@
         <v>84</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>74</v>
@@ -5258,72 +5311,72 @@
         <v>74</v>
       </c>
       <c r="T33" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="U33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF33" t="s" s="2">
+      <c r="AG33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>200</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5346,16 +5399,16 @@
         <v>84</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5369,72 +5422,72 @@
         <v>74</v>
       </c>
       <c r="T34" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF34" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="U34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF34" t="s" s="2">
+      <c r="AG34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AG34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>208</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5457,15 +5510,17 @@
         <v>84</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>74</v>
@@ -5523,27 +5578,27 @@
         <v>83</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>95</v>
+        <v>214</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5566,16 +5621,16 @@
         <v>84</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5625,7 +5680,7 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5634,27 +5689,27 @@
         <v>83</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5677,16 +5732,16 @@
         <v>84</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5736,7 +5791,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5745,13 +5800,13 @@
         <v>83</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>74</v>
@@ -5762,10 +5817,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5788,17 +5843,19 @@
         <v>84</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O38" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>74</v>
@@ -5823,29 +5880,31 @@
         <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="Y38" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="Z38" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -5854,27 +5913,27 @@
         <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5897,17 +5956,19 @@
         <v>84</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="O39" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>74</v>
@@ -5956,7 +6017,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -5965,27 +6026,27 @@
         <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6008,19 +6069,19 @@
         <v>84</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>74</v>
@@ -6069,7 +6130,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6078,27 +6139,27 @@
         <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>95</v>
+        <v>301</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6121,13 +6182,13 @@
         <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6178,7 +6239,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6193,7 +6254,7 @@
         <v>74</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
@@ -6204,14 +6265,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6230,16 +6291,16 @@
         <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>168</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6277,19 +6338,19 @@
         <v>74</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AC42" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF42" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6298,13 +6359,13 @@
         <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>74</v>
@@ -6315,10 +6376,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6341,15 +6402,17 @@
         <v>84</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>74</v>
@@ -6374,13 +6437,13 @@
         <v>74</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>74</v>
@@ -6398,7 +6461,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -6407,27 +6470,27 @@
         <v>83</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6450,13 +6513,13 @@
         <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>309</v>
+        <v>164</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>310</v>
+        <v>165</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6507,7 +6570,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6522,7 +6585,7 @@
         <v>74</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>74</v>
@@ -6533,14 +6596,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6559,15 +6622,17 @@
         <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>74</v>
@@ -6604,17 +6669,19 @@
         <v>74</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AC45" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="AD45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -6623,13 +6690,13 @@
         <v>76</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>
@@ -6640,16 +6707,16 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6668,15 +6735,17 @@
         <v>74</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>74</v>
@@ -6725,7 +6794,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -6734,13 +6803,13 @@
         <v>76</v>
       </c>
       <c r="AI46" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="AJ46" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="AK46" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>74</v>
@@ -6751,10 +6820,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6777,13 +6846,13 @@
         <v>74</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6807,7 +6876,7 @@
         <v>74</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="X47" t="s" s="2">
         <v>74</v>
@@ -6834,7 +6903,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -6860,10 +6929,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6886,19 +6955,19 @@
         <v>84</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>74</v>
@@ -6947,7 +7016,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -6956,27 +7025,27 @@
         <v>83</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6999,19 +7068,19 @@
         <v>84</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>74</v>
@@ -7036,13 +7105,13 @@
         <v>74</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>74</v>
@@ -7060,7 +7129,7 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7069,27 +7138,27 @@
         <v>83</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7112,16 +7181,16 @@
         <v>84</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7171,7 +7240,7 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7180,27 +7249,27 @@
         <v>83</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>165</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7223,15 +7292,17 @@
         <v>84</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>74</v>
@@ -7280,7 +7351,7 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7289,27 +7360,27 @@
         <v>83</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>95</v>
+        <v>214</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7332,17 +7403,19 @@
         <v>84</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O52" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>74</v>
@@ -7367,13 +7440,13 @@
         <v>74</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>74</v>
@@ -7391,7 +7464,7 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -7400,27 +7473,27 @@
         <v>83</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7443,13 +7516,13 @@
         <v>84</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7500,7 +7573,7 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7509,13 +7582,13 @@
         <v>83</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>74</v>
@@ -7526,10 +7599,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7552,17 +7625,19 @@
         <v>84</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="O54" t="s" s="2">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>74</v>
@@ -7611,7 +7686,7 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -7620,27 +7695,27 @@
         <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7663,17 +7738,19 @@
         <v>74</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="O55" t="s" s="2">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>74</v>
@@ -7722,7 +7799,7 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -7731,27 +7808,27 @@
         <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>95</v>
+        <v>383</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>375</v>
+        <v>385</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7774,15 +7851,17 @@
         <v>74</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>74</v>
@@ -7831,7 +7910,7 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -7840,27 +7919,27 @@
         <v>83</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>95</v>
+        <v>214</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>74</v>
+        <v>391</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7883,19 +7962,19 @@
         <v>74</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>74</v>
@@ -7944,7 +8023,7 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -7953,13 +8032,13 @@
         <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>74</v>
@@ -7970,10 +8049,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7996,13 +8075,13 @@
         <v>74</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8053,7 +8132,7 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -8068,7 +8147,7 @@
         <v>74</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>74</v>
@@ -8079,14 +8158,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8105,16 +8184,16 @@
         <v>74</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>168</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8152,19 +8231,19 @@
         <v>74</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8173,13 +8252,13 @@
         <v>76</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>74</v>
@@ -8190,14 +8269,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8216,19 +8295,19 @@
         <v>84</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>74</v>
@@ -8277,7 +8356,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8286,13 +8365,13 @@
         <v>76</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>74</v>
@@ -8303,10 +8382,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8329,19 +8408,19 @@
         <v>74</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>74</v>
@@ -8366,13 +8445,13 @@
         <v>74</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>74</v>
@@ -8390,7 +8469,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>83</v>
@@ -8399,27 +8478,27 @@
         <v>83</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>74</v>
+        <v>412</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8442,19 +8521,19 @@
         <v>74</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>74</v>
@@ -8503,7 +8582,7 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -8512,13 +8591,13 @@
         <v>83</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>74</v>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-09T11:34:38+01:00</t>
+    <t>2024-04-09T14:59:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="407">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-09T14:59:55+01:00</t>
+    <t>2024-04-12T08:32:19+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -260,7 +260,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>role</t>
@@ -307,185 +307,176 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>RelatedPerson.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>RelatedPerson.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>RelatedPerson.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>RelatedPerson.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>RelatedPerson.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>RelatedPerson.extension:contactPreference</t>
+  </si>
+  <si>
+    <t>contactPreference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/StructureDefinition/Extension-UKCore-ContactPreference}
+</t>
+  </si>
+  <si>
+    <t>The preferred method of contact, contact times and written communication format given by a Patient or Related Person.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t>RelatedPerson.extension:copyCorrespondenceIndicator</t>
+  </si>
+  <si>
+    <t>copyCorrespondenceIndicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/StructureDefinition/Extension-UKCore-CopyCorrespondenceIndicator}
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>RelatedPerson.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>RelatedPerson.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>RelatedPerson.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>RelatedPerson.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>RelatedPerson.extension</t>
+    <t>Indicator showing that a patient's contact or related person SHALL be copied in to patient correspondence</t>
+  </si>
+  <si>
+    <t>Extension carrying a boolean indicator showing that a patient's contact or related person SHALL be copied in to patient correspondence.</t>
+  </si>
+  <si>
+    <t>RelatedPerson.modifierExtension</t>
   </si>
   <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>RelatedPerson.extension:contactPreference</t>
-  </si>
-  <si>
-    <t>contactPreference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/StructureDefinition/Extension-UKCore-ContactPreference}
-</t>
-  </si>
-  <si>
-    <t>The preferred method of contact, contact times and written communication format given by a Patient or Related Person.</t>
-  </si>
-  <si>
-    <t>RelatedPerson.extension:copyCorrespondenceIndicator</t>
-  </si>
-  <si>
-    <t>copyCorrespondenceIndicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/StructureDefinition/Extension-UKCore-CopyCorrespondenceIndicator}
-</t>
-  </si>
-  <si>
-    <t>Indicator showing that a patient's contact or related person SHALL be copied in to patient correspondence</t>
-  </si>
-  <si>
-    <t>Extension carrying a boolean indicator showing that a patient's contact or related person SHALL be copied in to patient correspondence.</t>
-  </si>
-  <si>
-    <t>RelatedPerson.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -493,6 +484,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -540,10 +534,19 @@
     <t>Element.id</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>RelatedPerson.identifier.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -677,15 +680,7 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
     <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>Role.effectiveTime or implied by context</t>
@@ -713,10 +708,6 @@
     <t>Identifier.assigner</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
     <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
@@ -764,9 +755,6 @@
     <t>The patient this person is related to.</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
     <t>We need to know which patient this RelatedPerson is related to.</t>
   </si>
   <si>
@@ -797,8 +785,8 @@
     <t>Reference.reference</t>
   </si>
   <si>
-    <t>ele-1
-ref-1</t>
+    <t xml:space="preserve">ref-1
+</t>
   </si>
   <si>
     <t>RelatedPerson.patient.type</t>
@@ -844,9 +832,6 @@
     <t>.identifier</t>
   </si>
   <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
     <t>RelatedPerson.patient.identifier.id</t>
   </si>
   <si>
@@ -893,9 +878,6 @@
   </si>
   <si>
     <t>The nature of the relationship between a patient and the related person.</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
     <t>We need to know the relationship with the patient since it influences the interpretation of the information attributed to this person.</t>
@@ -926,9 +908,6 @@
     <t>A name associated with the person.</t>
   </si>
   <si>
-    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
-  </si>
-  <si>
     <t>Related persons need to be identified by name, but it is uncommon to need details about multiple other names for that person.</t>
   </si>
   <si>
@@ -957,10 +936,6 @@
     <t>People have (primary) ways to contact them in some way such as phone, email.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
-  </si>
-  <si>
     <t>telecom</t>
   </si>
   <si>
@@ -982,9 +957,6 @@
     <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
     <t>Telecommunications form for contact point.</t>
   </si>
   <si>
@@ -994,8 +966,8 @@
     <t>ContactPoint.system</t>
   </si>
   <si>
-    <t>ele-1
-cpt-2</t>
+    <t xml:space="preserve">cpt-2
+</t>
   </si>
   <si>
     <t>./scheme</t>
@@ -1005,6 +977,12 @@
   </si>
   <si>
     <t>RelatedPerson.telecom.system.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
   </si>
   <si>
     <t>RelatedPerson.telecom.system.extension</t>
@@ -1032,9 +1010,6 @@
     <t>Primitive value for code</t>
   </si>
   <si>
-    <t>1048576</t>
-  </si>
-  <si>
     <t>string.value</t>
   </si>
   <si>
@@ -1179,9 +1154,6 @@
     <t>Address where the related person can be contacted or visited.</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
-  </si>
-  <si>
     <t>Need to keep track where the related person can be contacted per postal mail or visited.</t>
   </si>
   <si>
@@ -1204,16 +1176,9 @@
     <t>Image of the person.</t>
   </si>
   <si>
-    <t>When providing a summary view (for example with Observation.value[x]) Attachment should be represented with a brief display text such as "Signed Procedure Consent".</t>
-  </si>
-  <si>
     <t>Many EHR systems have the capability to capture an image of persons. Fits with newer social media usage too.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-att-1:If the Attachment has data, it SHALL have a contentType {data.empty() or contentType.exists()}</t>
-  </si>
-  <si>
     <t>player[classCode='PSN' and determinerCode='INSTANCE']/desc</t>
   </si>
   <si>
@@ -1233,9 +1198,6 @@
   </si>
   <si>
     <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>DR</t>
   </si>
   <si>
     <t>RelatedPerson.communication</t>
@@ -1299,9 +1261,6 @@
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/languageCommunication/code</t>
-  </si>
-  <si>
-    <t>CE/CNE/CWE</t>
   </si>
   <si>
     <t>RelatedPerson.communication.preferred</t>
@@ -1646,17 +1605,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.43359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="28.0234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.8046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.68359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="27.625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.12890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="94.6171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1665,25 +1624,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.23046875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="37.69140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.48046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="36.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="99.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="60.5" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="99.8984375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.79296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2119,13 +2078,13 @@
         <v>83</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK4" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>74</v>
@@ -2136,10 +2095,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2162,16 +2121,16 @@
         <v>84</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2221,7 +2180,7 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
@@ -2230,13 +2189,13 @@
         <v>83</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ5" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK5" t="s" s="2">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>74</v>
@@ -2247,10 +2206,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2273,16 +2232,16 @@
         <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2308,32 +2267,32 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Y6" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>113</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
       </c>
@@ -2341,13 +2300,13 @@
         <v>83</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ6" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK6" t="s" s="2">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>74</v>
@@ -2358,14 +2317,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2384,16 +2343,16 @@
         <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2443,7 +2402,7 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
@@ -2452,13 +2411,13 @@
         <v>83</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK7" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>74</v>
@@ -2469,14 +2428,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2495,16 +2454,16 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2554,7 +2513,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -2569,7 +2528,7 @@
         <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>74</v>
@@ -2580,14 +2539,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2606,17 +2565,15 @@
         <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>74</v>
@@ -2653,19 +2610,17 @@
         <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -2674,13 +2629,13 @@
         <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>74</v>
@@ -2691,16 +2646,16 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2719,17 +2674,15 @@
         <v>74</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -2778,7 +2731,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2787,13 +2740,13 @@
         <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>74</v>
@@ -2804,16 +2757,16 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2832,17 +2785,15 @@
         <v>74</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>74</v>
@@ -2891,7 +2842,7 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2900,13 +2851,13 @@
         <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>74</v>
@@ -2917,14 +2868,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2943,19 +2894,19 @@
         <v>74</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O12" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>74</v>
@@ -2992,19 +2943,19 @@
         <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -3013,13 +2964,13 @@
         <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>74</v>
@@ -3030,10 +2981,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3056,17 +3007,17 @@
         <v>84</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>74</v>
@@ -3115,7 +3066,7 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -3124,27 +3075,27 @@
         <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ13" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>161</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3167,13 +3118,13 @@
         <v>74</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3224,7 +3175,7 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -3239,7 +3190,7 @@
         <v>74</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>74</v>
@@ -3250,14 +3201,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3276,16 +3227,16 @@
         <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>168</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3323,19 +3274,19 @@
         <v>74</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -3344,13 +3295,13 @@
         <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>74</v>
@@ -3361,10 +3312,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3387,19 +3338,19 @@
         <v>84</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>74</v>
@@ -3424,13 +3375,13 @@
         <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>74</v>
@@ -3448,7 +3399,7 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -3457,27 +3408,27 @@
         <v>83</v>
       </c>
       <c r="AI16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ16" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3500,19 +3451,19 @@
         <v>84</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>74</v>
@@ -3537,13 +3488,13 @@
         <v>74</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>74</v>
@@ -3561,7 +3512,7 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -3570,27 +3521,27 @@
         <v>83</v>
       </c>
       <c r="AI17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ17" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3613,19 +3564,19 @@
         <v>84</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>74</v>
@@ -3638,7 +3589,7 @@
         <v>74</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>74</v>
@@ -3674,7 +3625,7 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -3683,27 +3634,27 @@
         <v>83</v>
       </c>
       <c r="AI18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ18" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3726,16 +3677,16 @@
         <v>84</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3749,7 +3700,7 @@
         <v>74</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>74</v>
@@ -3785,7 +3736,7 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -3794,27 +3745,27 @@
         <v>83</v>
       </c>
       <c r="AI19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ19" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3837,17 +3788,15 @@
         <v>84</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N20" t="s" s="2">
         <v>212</v>
       </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>74</v>
@@ -3905,27 +3854,27 @@
         <v>83</v>
       </c>
       <c r="AI20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ20" t="s" s="2">
+      <c r="AK20" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>216</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3948,16 +3897,16 @@
         <v>84</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4007,36 +3956,36 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>225</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4059,88 +4008,88 @@
         <v>84</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="P22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q22" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="O22" t="s" s="2">
+      <c r="R22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="P22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="R22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>74</v>
@@ -4148,10 +4097,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4174,19 +4123,17 @@
         <v>84</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>74</v>
@@ -4235,7 +4182,7 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>83</v>
@@ -4244,27 +4191,27 @@
         <v>83</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ23" t="s" s="2">
-        <v>223</v>
-      </c>
       <c r="AK23" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4287,13 +4234,13 @@
         <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4344,7 +4291,7 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4359,7 +4306,7 @@
         <v>74</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
@@ -4370,14 +4317,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4396,16 +4343,16 @@
         <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>168</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4443,19 +4390,19 @@
         <v>74</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4464,13 +4411,13 @@
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>74</v>
@@ -4481,10 +4428,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4507,16 +4454,16 @@
         <v>84</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4566,7 +4513,7 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4575,13 +4522,13 @@
         <v>83</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>74</v>
@@ -4592,10 +4539,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4618,16 +4565,16 @@
         <v>84</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4653,13 +4600,13 @@
         <v>74</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>74</v>
@@ -4677,7 +4624,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4686,13 +4633,13 @@
         <v>83</v>
       </c>
       <c r="AI27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ27" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK27" t="s" s="2">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>74</v>
@@ -4703,10 +4650,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4729,16 +4676,16 @@
         <v>84</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4788,7 +4735,7 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -4797,27 +4744,27 @@
         <v>83</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ28" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK28" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>264</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4840,13 +4787,13 @@
         <v>74</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4897,7 +4844,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -4912,7 +4859,7 @@
         <v>74</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>74</v>
@@ -4923,14 +4870,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4949,16 +4896,16 @@
         <v>74</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>168</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4996,19 +4943,19 @@
         <v>74</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -5017,13 +4964,13 @@
         <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>74</v>
@@ -5034,10 +4981,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5060,19 +5007,19 @@
         <v>84</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>74</v>
@@ -5097,13 +5044,13 @@
         <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>74</v>
@@ -5121,7 +5068,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5130,27 +5077,27 @@
         <v>83</v>
       </c>
       <c r="AI31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ31" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK31" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5173,19 +5120,19 @@
         <v>84</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>74</v>
@@ -5210,13 +5157,13 @@
         <v>74</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>74</v>
@@ -5234,7 +5181,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5243,27 +5190,27 @@
         <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ32" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK32" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5286,19 +5233,19 @@
         <v>84</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>74</v>
@@ -5311,7 +5258,7 @@
         <v>74</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>74</v>
@@ -5347,7 +5294,7 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5356,27 +5303,27 @@
         <v>83</v>
       </c>
       <c r="AI33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ33" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK33" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5399,16 +5346,16 @@
         <v>84</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5422,7 +5369,7 @@
         <v>74</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>74</v>
@@ -5458,7 +5405,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5467,27 +5414,27 @@
         <v>83</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ34" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK34" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5510,17 +5457,15 @@
         <v>84</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N35" t="s" s="2">
         <v>212</v>
       </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>74</v>
@@ -5578,27 +5523,27 @@
         <v>83</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ35" t="s" s="2">
+      <c r="AK35" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>216</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5621,16 +5566,16 @@
         <v>84</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5680,36 +5625,36 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>225</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5732,16 +5677,16 @@
         <v>84</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5791,7 +5736,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5800,13 +5745,13 @@
         <v>83</v>
       </c>
       <c r="AI37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ37" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK37" t="s" s="2">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>74</v>
@@ -5817,10 +5762,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5843,19 +5788,17 @@
         <v>84</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>74</v>
@@ -5880,13 +5823,11 @@
         <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>74</v>
@@ -5904,7 +5845,7 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -5913,27 +5854,27 @@
         <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ38" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK38" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5956,19 +5897,17 @@
         <v>84</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>74</v>
@@ -6017,7 +5956,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -6026,27 +5965,27 @@
         <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ39" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK39" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6069,19 +6008,19 @@
         <v>84</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>74</v>
@@ -6130,7 +6069,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6139,27 +6078,27 @@
         <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ40" t="s" s="2">
-        <v>301</v>
-      </c>
       <c r="AK40" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6182,13 +6121,13 @@
         <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6239,7 +6178,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6254,7 +6193,7 @@
         <v>74</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
@@ -6265,14 +6204,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6291,16 +6230,16 @@
         <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>168</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6338,19 +6277,19 @@
         <v>74</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6359,13 +6298,13 @@
         <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>74</v>
@@ -6376,10 +6315,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6402,17 +6341,15 @@
         <v>84</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>74</v>
@@ -6437,13 +6374,13 @@
         <v>74</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>74</v>
@@ -6461,7 +6398,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -6470,27 +6407,27 @@
         <v>83</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6513,13 +6450,13 @@
         <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>164</v>
+        <v>309</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6570,7 +6507,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6585,7 +6522,7 @@
         <v>74</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>74</v>
@@ -6596,14 +6533,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6622,17 +6559,15 @@
         <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>74</v>
@@ -6669,19 +6604,17 @@
         <v>74</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AC45" s="2"/>
       <c r="AD45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -6690,13 +6623,13 @@
         <v>76</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>
@@ -6707,16 +6640,16 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6735,17 +6668,15 @@
         <v>74</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>74</v>
@@ -6794,7 +6725,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -6803,13 +6734,13 @@
         <v>76</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>74</v>
@@ -6820,10 +6751,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6846,13 +6777,13 @@
         <v>74</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6876,7 +6807,7 @@
         <v>74</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>325</v>
+        <v>74</v>
       </c>
       <c r="X47" t="s" s="2">
         <v>74</v>
@@ -6903,7 +6834,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -6929,10 +6860,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6955,19 +6886,19 @@
         <v>84</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>74</v>
@@ -7016,7 +6947,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7025,27 +6956,27 @@
         <v>83</v>
       </c>
       <c r="AI48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ48" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK48" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7068,19 +6999,19 @@
         <v>84</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>74</v>
@@ -7105,13 +7036,13 @@
         <v>74</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>74</v>
@@ -7129,7 +7060,7 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7138,27 +7069,27 @@
         <v>83</v>
       </c>
       <c r="AI49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ49" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK49" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7181,16 +7112,16 @@
         <v>84</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7240,7 +7171,7 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7249,27 +7180,27 @@
         <v>83</v>
       </c>
       <c r="AI50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ50" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK50" t="s" s="2">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>104</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7292,17 +7223,15 @@
         <v>84</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>74</v>
@@ -7351,7 +7280,7 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7360,27 +7289,27 @@
         <v>83</v>
       </c>
       <c r="AI51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ51" t="s" s="2">
-        <v>214</v>
-      </c>
       <c r="AK51" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7403,19 +7332,17 @@
         <v>84</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>74</v>
@@ -7440,13 +7367,13 @@
         <v>74</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>74</v>
@@ -7464,36 +7391,36 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>363</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7516,13 +7443,13 @@
         <v>84</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7573,7 +7500,7 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7582,13 +7509,13 @@
         <v>83</v>
       </c>
       <c r="AI53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ53" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK53" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>74</v>
@@ -7599,10 +7526,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7625,19 +7552,17 @@
         <v>84</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>74</v>
@@ -7686,7 +7611,7 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -7695,27 +7620,27 @@
         <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ54" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK54" t="s" s="2">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7738,19 +7663,17 @@
         <v>74</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>74</v>
@@ -7799,7 +7722,7 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -7808,27 +7731,27 @@
         <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ55" t="s" s="2">
-        <v>383</v>
-      </c>
       <c r="AK55" t="s" s="2">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7851,17 +7774,15 @@
         <v>74</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>74</v>
@@ -7910,7 +7831,7 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -7919,27 +7840,27 @@
         <v>83</v>
       </c>
       <c r="AI56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ56" t="s" s="2">
-        <v>214</v>
-      </c>
       <c r="AK56" t="s" s="2">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>391</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7962,19 +7883,19 @@
         <v>74</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>74</v>
@@ -8023,7 +7944,7 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -8032,13 +7953,13 @@
         <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ57" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK57" t="s" s="2">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>74</v>
@@ -8049,10 +7970,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8075,13 +7996,13 @@
         <v>74</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8132,7 +8053,7 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -8147,7 +8068,7 @@
         <v>74</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>74</v>
@@ -8158,14 +8079,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8184,16 +8105,16 @@
         <v>74</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>168</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8231,19 +8152,19 @@
         <v>74</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8252,13 +8173,13 @@
         <v>76</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>74</v>
@@ -8269,14 +8190,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8295,19 +8216,19 @@
         <v>84</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>74</v>
@@ -8356,7 +8277,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8365,13 +8286,13 @@
         <v>76</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>74</v>
@@ -8382,10 +8303,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8408,19 +8329,19 @@
         <v>74</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>74</v>
@@ -8445,13 +8366,13 @@
         <v>74</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>74</v>
@@ -8469,7 +8390,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>83</v>
@@ -8478,27 +8399,27 @@
         <v>83</v>
       </c>
       <c r="AI61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ61" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK61" t="s" s="2">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>412</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8521,19 +8442,19 @@
         <v>74</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>74</v>
@@ -8582,7 +8503,7 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -8591,13 +8512,13 @@
         <v>83</v>
       </c>
       <c r="AI62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ62" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK62" t="s" s="2">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>74</v>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="419">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-12T08:32:19+01:00</t>
+    <t>2024-04-12T10:30:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -260,7 +260,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
   </si>
   <si>
     <t>role</t>
@@ -307,10 +307,17 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>RelatedPerson.implicitRules</t>
   </si>
   <si>
@@ -330,6 +337,9 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>RelatedPerson.language</t>
   </si>
   <si>
@@ -407,26 +417,33 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>RelatedPerson.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
   </si>
   <si>
@@ -450,10 +467,6 @@
     <t>The preferred method of contact, contact times and written communication format given by a Patient or Related Person.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>RelatedPerson.extension:copyCorrespondenceIndicator</t>
   </si>
   <si>
@@ -473,10 +486,6 @@
     <t>RelatedPerson.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -484,9 +493,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -534,19 +540,10 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>RelatedPerson.identifier.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -680,7 +677,15 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
     <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>Role.effectiveTime or implied by context</t>
@@ -708,6 +713,10 @@
     <t>Identifier.assigner</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+  </si>
+  <si>
     <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
@@ -755,6 +764,9 @@
     <t>The patient this person is related to.</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
     <t>We need to know which patient this RelatedPerson is related to.</t>
   </si>
   <si>
@@ -785,8 +797,8 @@
     <t>Reference.reference</t>
   </si>
   <si>
-    <t xml:space="preserve">ref-1
-</t>
+    <t>ele-1
+ref-1</t>
   </si>
   <si>
     <t>RelatedPerson.patient.type</t>
@@ -832,6 +844,9 @@
     <t>.identifier</t>
   </si>
   <si>
+    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+  </si>
+  <si>
     <t>RelatedPerson.patient.identifier.id</t>
   </si>
   <si>
@@ -878,6 +893,9 @@
   </si>
   <si>
     <t>The nature of the relationship between a patient and the related person.</t>
+  </si>
+  <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
     <t>We need to know the relationship with the patient since it influences the interpretation of the information attributed to this person.</t>
@@ -908,6 +926,9 @@
     <t>A name associated with the person.</t>
   </si>
   <si>
+    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
+  </si>
+  <si>
     <t>Related persons need to be identified by name, but it is uncommon to need details about multiple other names for that person.</t>
   </si>
   <si>
@@ -936,6 +957,10 @@
     <t>People have (primary) ways to contact them in some way such as phone, email.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
+  </si>
+  <si>
     <t>telecom</t>
   </si>
   <si>
@@ -957,6 +982,9 @@
     <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
   </si>
   <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
     <t>Telecommunications form for contact point.</t>
   </si>
   <si>
@@ -966,8 +994,8 @@
     <t>ContactPoint.system</t>
   </si>
   <si>
-    <t xml:space="preserve">cpt-2
-</t>
+    <t>ele-1
+cpt-2</t>
   </si>
   <si>
     <t>./scheme</t>
@@ -977,12 +1005,6 @@
   </si>
   <si>
     <t>RelatedPerson.telecom.system.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references)</t>
   </si>
   <si>
     <t>RelatedPerson.telecom.system.extension</t>
@@ -1010,6 +1032,9 @@
     <t>Primitive value for code</t>
   </si>
   <si>
+    <t>1048576</t>
+  </si>
+  <si>
     <t>string.value</t>
   </si>
   <si>
@@ -1154,6 +1179,9 @@
     <t>Address where the related person can be contacted or visited.</t>
   </si>
   <si>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+  </si>
+  <si>
     <t>Need to keep track where the related person can be contacted per postal mail or visited.</t>
   </si>
   <si>
@@ -1176,9 +1204,16 @@
     <t>Image of the person.</t>
   </si>
   <si>
+    <t>When providing a summary view (for example with Observation.value[x]) Attachment should be represented with a brief display text such as "Signed Procedure Consent".</t>
+  </si>
+  <si>
     <t>Many EHR systems have the capability to capture an image of persons. Fits with newer social media usage too.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+att-1:If the Attachment has data, it SHALL have a contentType {data.empty() or contentType.exists()}</t>
+  </si>
+  <si>
     <t>player[classCode='PSN' and determinerCode='INSTANCE']/desc</t>
   </si>
   <si>
@@ -1198,6 +1233,9 @@
   </si>
   <si>
     <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>DR</t>
   </si>
   <si>
     <t>RelatedPerson.communication</t>
@@ -1261,6 +1299,9 @@
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/languageCommunication/code</t>
+  </si>
+  <si>
+    <t>CE/CNE/CWE</t>
   </si>
   <si>
     <t>RelatedPerson.communication.preferred</t>
@@ -1605,17 +1646,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.8046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.68359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.43359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="28.0234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.6171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="94.12890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1624,25 +1665,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.48046875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="36.79296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.23046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="37.69140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.79296875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="99.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="60.5" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2078,13 +2119,13 @@
         <v>83</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>74</v>
@@ -2095,10 +2136,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2121,16 +2162,16 @@
         <v>84</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2180,7 +2221,7 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
@@ -2189,13 +2230,13 @@
         <v>83</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>74</v>
@@ -2206,10 +2247,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2232,16 +2273,16 @@
         <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2267,13 +2308,13 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>74</v>
@@ -2291,7 +2332,7 @@
         <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
@@ -2300,13 +2341,13 @@
         <v>83</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>74</v>
@@ -2317,14 +2358,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2343,16 +2384,16 @@
         <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2402,7 +2443,7 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
@@ -2411,13 +2452,13 @@
         <v>83</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>74</v>
@@ -2428,14 +2469,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2454,16 +2495,16 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2513,7 +2554,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -2528,7 +2569,7 @@
         <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>74</v>
@@ -2539,14 +2580,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2565,15 +2606,17 @@
         <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>74</v>
@@ -2610,17 +2653,19 @@
         <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -2629,13 +2674,13 @@
         <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>74</v>
@@ -2646,16 +2691,16 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2674,15 +2719,17 @@
         <v>74</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -2731,7 +2778,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2740,13 +2787,13 @@
         <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="AJ10" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="AK10" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>74</v>
@@ -2757,16 +2804,16 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2785,15 +2832,17 @@
         <v>74</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>74</v>
@@ -2842,7 +2891,7 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2851,13 +2900,13 @@
         <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="AJ11" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="AK11" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>74</v>
@@ -2868,14 +2917,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2894,19 +2943,19 @@
         <v>74</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>74</v>
@@ -2943,19 +2992,19 @@
         <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -2964,13 +3013,13 @@
         <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>74</v>
@@ -2981,10 +3030,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3007,17 +3056,17 @@
         <v>84</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>74</v>
@@ -3066,7 +3115,7 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -3075,27 +3124,27 @@
         <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3118,13 +3167,13 @@
         <v>74</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3175,7 +3224,7 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -3190,7 +3239,7 @@
         <v>74</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>74</v>
@@ -3201,14 +3250,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3227,16 +3276,16 @@
         <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>168</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3274,19 +3323,19 @@
         <v>74</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AC15" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -3295,13 +3344,13 @@
         <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>74</v>
@@ -3312,10 +3361,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3338,19 +3387,19 @@
         <v>84</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>74</v>
@@ -3375,60 +3424,60 @@
         <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="Z16" t="s" s="2">
+      <c r="AA16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AA16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF16" t="s" s="2">
+      <c r="AG16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AG16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>180</v>
-      </c>
       <c r="AL16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3451,19 +3500,19 @@
         <v>84</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>74</v>
@@ -3488,60 +3537,60 @@
         <v>74</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="Z17" t="s" s="2">
+      <c r="AA17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AA17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF17" t="s" s="2">
+      <c r="AG17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>191</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3564,19 +3613,19 @@
         <v>84</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>74</v>
@@ -3589,72 +3638,72 @@
         <v>74</v>
       </c>
       <c r="T18" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="U18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF18" t="s" s="2">
+      <c r="AG18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AG18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>200</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3677,16 +3726,16 @@
         <v>84</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3700,72 +3749,72 @@
         <v>74</v>
       </c>
       <c r="T19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="U19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF19" t="s" s="2">
+      <c r="AG19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>208</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3788,15 +3837,17 @@
         <v>84</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>74</v>
@@ -3854,27 +3905,27 @@
         <v>83</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>95</v>
+        <v>214</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3897,16 +3948,16 @@
         <v>84</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3956,7 +4007,7 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -3965,27 +4016,27 @@
         <v>83</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4008,71 +4059,71 @@
         <v>84</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="P22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q22" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M22" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="P22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q22" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="R22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>224</v>
-      </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
       </c>
@@ -4080,16 +4131,16 @@
         <v>83</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>74</v>
@@ -4097,10 +4148,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4123,17 +4174,19 @@
         <v>84</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O23" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>74</v>
@@ -4182,7 +4235,7 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>83</v>
@@ -4191,27 +4244,27 @@
         <v>83</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4234,13 +4287,13 @@
         <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4291,7 +4344,7 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4306,7 +4359,7 @@
         <v>74</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
@@ -4317,14 +4370,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4343,16 +4396,16 @@
         <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>168</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4390,19 +4443,19 @@
         <v>74</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AC25" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4411,13 +4464,13 @@
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>74</v>
@@ -4428,10 +4481,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4454,16 +4507,16 @@
         <v>84</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4513,7 +4566,7 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4522,13 +4575,13 @@
         <v>83</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>74</v>
@@ -4539,10 +4592,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4565,16 +4618,16 @@
         <v>84</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4600,13 +4653,13 @@
         <v>74</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>74</v>
@@ -4624,7 +4677,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4633,13 +4686,13 @@
         <v>83</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>74</v>
@@ -4650,10 +4703,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4676,16 +4729,16 @@
         <v>84</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4735,7 +4788,7 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -4744,27 +4797,27 @@
         <v>83</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>74</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4787,13 +4840,13 @@
         <v>74</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4844,7 +4897,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -4859,7 +4912,7 @@
         <v>74</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>74</v>
@@ -4870,14 +4923,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4896,16 +4949,16 @@
         <v>74</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>168</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4943,19 +4996,19 @@
         <v>74</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AC30" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -4964,13 +5017,13 @@
         <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>74</v>
@@ -4981,10 +5034,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5007,19 +5060,19 @@
         <v>84</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>74</v>
@@ -5044,60 +5097,60 @@
         <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="Y31" t="s" s="2">
+      <c r="Z31" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="Z31" t="s" s="2">
+      <c r="AA31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AA31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF31" t="s" s="2">
+      <c r="AG31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AG31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>180</v>
-      </c>
       <c r="AL31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5120,19 +5173,19 @@
         <v>84</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>74</v>
@@ -5157,60 +5210,60 @@
         <v>74</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="Y32" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="Y32" t="s" s="2">
+      <c r="Z32" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="Z32" t="s" s="2">
+      <c r="AA32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AA32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF32" t="s" s="2">
+      <c r="AG32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>191</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5233,19 +5286,19 @@
         <v>84</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>74</v>
@@ -5258,72 +5311,72 @@
         <v>74</v>
       </c>
       <c r="T33" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="U33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF33" t="s" s="2">
+      <c r="AG33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>200</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5346,16 +5399,16 @@
         <v>84</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5369,72 +5422,72 @@
         <v>74</v>
       </c>
       <c r="T34" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF34" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="U34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF34" t="s" s="2">
+      <c r="AG34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AG34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>208</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5457,15 +5510,17 @@
         <v>84</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>74</v>
@@ -5523,27 +5578,27 @@
         <v>83</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>95</v>
+        <v>214</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5566,16 +5621,16 @@
         <v>84</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5625,7 +5680,7 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5634,27 +5689,27 @@
         <v>83</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5677,16 +5732,16 @@
         <v>84</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5736,7 +5791,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5745,13 +5800,13 @@
         <v>83</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>74</v>
@@ -5762,10 +5817,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5788,17 +5843,19 @@
         <v>84</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O38" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>74</v>
@@ -5823,29 +5880,31 @@
         <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="Y38" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="Z38" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -5854,27 +5913,27 @@
         <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5897,17 +5956,19 @@
         <v>84</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="O39" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>74</v>
@@ -5956,7 +6017,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -5965,27 +6026,27 @@
         <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6008,19 +6069,19 @@
         <v>84</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>74</v>
@@ -6069,7 +6130,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6078,27 +6139,27 @@
         <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>95</v>
+        <v>301</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6121,13 +6182,13 @@
         <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6178,7 +6239,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6193,7 +6254,7 @@
         <v>74</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
@@ -6204,14 +6265,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6230,16 +6291,16 @@
         <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>168</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6277,19 +6338,19 @@
         <v>74</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AC42" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF42" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6298,13 +6359,13 @@
         <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>74</v>
@@ -6315,10 +6376,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6341,15 +6402,17 @@
         <v>84</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>74</v>
@@ -6374,13 +6437,13 @@
         <v>74</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>74</v>
@@ -6398,7 +6461,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -6407,27 +6470,27 @@
         <v>83</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6450,13 +6513,13 @@
         <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>309</v>
+        <v>164</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>310</v>
+        <v>165</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6507,7 +6570,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6522,7 +6585,7 @@
         <v>74</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>74</v>
@@ -6533,14 +6596,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6559,15 +6622,17 @@
         <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>74</v>
@@ -6604,17 +6669,19 @@
         <v>74</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AC45" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="AD45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -6623,13 +6690,13 @@
         <v>76</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>
@@ -6640,16 +6707,16 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6668,15 +6735,17 @@
         <v>74</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>74</v>
@@ -6725,7 +6794,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -6734,13 +6803,13 @@
         <v>76</v>
       </c>
       <c r="AI46" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="AJ46" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="AK46" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>74</v>
@@ -6751,10 +6820,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6777,13 +6846,13 @@
         <v>74</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6807,7 +6876,7 @@
         <v>74</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="X47" t="s" s="2">
         <v>74</v>
@@ -6834,7 +6903,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -6860,10 +6929,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6886,19 +6955,19 @@
         <v>84</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>74</v>
@@ -6947,7 +7016,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -6956,27 +7025,27 @@
         <v>83</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6999,19 +7068,19 @@
         <v>84</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>74</v>
@@ -7036,13 +7105,13 @@
         <v>74</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>74</v>
@@ -7060,7 +7129,7 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7069,27 +7138,27 @@
         <v>83</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7112,16 +7181,16 @@
         <v>84</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7171,7 +7240,7 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7180,27 +7249,27 @@
         <v>83</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>165</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7223,15 +7292,17 @@
         <v>84</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>74</v>
@@ -7280,7 +7351,7 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7289,27 +7360,27 @@
         <v>83</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>95</v>
+        <v>214</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7332,17 +7403,19 @@
         <v>84</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O52" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>74</v>
@@ -7367,13 +7440,13 @@
         <v>74</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>74</v>
@@ -7391,7 +7464,7 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -7400,27 +7473,27 @@
         <v>83</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7443,13 +7516,13 @@
         <v>84</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7500,7 +7573,7 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7509,13 +7582,13 @@
         <v>83</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>74</v>
@@ -7526,10 +7599,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7552,17 +7625,19 @@
         <v>84</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="O54" t="s" s="2">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>74</v>
@@ -7611,7 +7686,7 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -7620,27 +7695,27 @@
         <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7663,17 +7738,19 @@
         <v>74</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="O55" t="s" s="2">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>74</v>
@@ -7722,7 +7799,7 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -7731,27 +7808,27 @@
         <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>95</v>
+        <v>383</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>375</v>
+        <v>385</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7774,15 +7851,17 @@
         <v>74</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>74</v>
@@ -7831,7 +7910,7 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -7840,27 +7919,27 @@
         <v>83</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>95</v>
+        <v>214</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>74</v>
+        <v>391</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7883,19 +7962,19 @@
         <v>74</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>74</v>
@@ -7944,7 +8023,7 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -7953,13 +8032,13 @@
         <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>74</v>
@@ -7970,10 +8049,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7996,13 +8075,13 @@
         <v>74</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8053,7 +8132,7 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -8068,7 +8147,7 @@
         <v>74</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>74</v>
@@ -8079,14 +8158,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8105,16 +8184,16 @@
         <v>74</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>168</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8152,19 +8231,19 @@
         <v>74</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8173,13 +8252,13 @@
         <v>76</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>74</v>
@@ -8190,14 +8269,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8216,19 +8295,19 @@
         <v>84</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>74</v>
@@ -8277,7 +8356,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8286,13 +8365,13 @@
         <v>76</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>74</v>
@@ -8303,10 +8382,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8329,19 +8408,19 @@
         <v>74</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>74</v>
@@ -8366,13 +8445,13 @@
         <v>74</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>74</v>
@@ -8390,7 +8469,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>83</v>
@@ -8399,27 +8478,27 @@
         <v>83</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>74</v>
+        <v>412</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8442,19 +8521,19 @@
         <v>74</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>74</v>
@@ -8503,7 +8582,7 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -8512,13 +8591,13 @@
         <v>83</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>74</v>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-12T10:30:08+01:00</t>
+    <t>2024-04-12T11:43:38+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-12T11:43:38+01:00</t>
+    <t>2024-04-15T10:54:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="407">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-15T10:54:06+01:00</t>
+    <t>2024-04-19T04:03:07+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -260,7 +260,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>role</t>
@@ -307,185 +307,176 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>RelatedPerson.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>RelatedPerson.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>RelatedPerson.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>RelatedPerson.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>RelatedPerson.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>RelatedPerson.extension:contactPreference</t>
+  </si>
+  <si>
+    <t>contactPreference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/StructureDefinition/Extension-UKCore-ContactPreference}
+</t>
+  </si>
+  <si>
+    <t>The preferred method of contact, contact times and written communication format given by a Patient or Related Person.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t>RelatedPerson.extension:copyCorrespondenceIndicator</t>
+  </si>
+  <si>
+    <t>copyCorrespondenceIndicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/StructureDefinition/Extension-UKCore-CopyCorrespondenceIndicator}
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>RelatedPerson.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>RelatedPerson.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>RelatedPerson.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>RelatedPerson.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>RelatedPerson.extension</t>
+    <t>Indicator showing that a patient's contact or related person SHALL be copied in to patient correspondence</t>
+  </si>
+  <si>
+    <t>Extension carrying a boolean indicator showing that a patient's contact or related person SHALL be copied in to patient correspondence.</t>
+  </si>
+  <si>
+    <t>RelatedPerson.modifierExtension</t>
   </si>
   <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>RelatedPerson.extension:contactPreference</t>
-  </si>
-  <si>
-    <t>contactPreference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/StructureDefinition/Extension-UKCore-ContactPreference}
-</t>
-  </si>
-  <si>
-    <t>The preferred method of contact, contact times and written communication format given by a Patient or Related Person.</t>
-  </si>
-  <si>
-    <t>RelatedPerson.extension:copyCorrespondenceIndicator</t>
-  </si>
-  <si>
-    <t>copyCorrespondenceIndicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/StructureDefinition/Extension-UKCore-CopyCorrespondenceIndicator}
-</t>
-  </si>
-  <si>
-    <t>Indicator showing that a patient's contact or related person SHALL be copied in to patient correspondence</t>
-  </si>
-  <si>
-    <t>Extension carrying a boolean indicator showing that a patient's contact or related person SHALL be copied in to patient correspondence.</t>
-  </si>
-  <si>
-    <t>RelatedPerson.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -493,6 +484,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -540,10 +534,19 @@
     <t>Element.id</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>RelatedPerson.identifier.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -677,15 +680,7 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
     <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>Role.effectiveTime or implied by context</t>
@@ -713,10 +708,6 @@
     <t>Identifier.assigner</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
     <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
@@ -764,9 +755,6 @@
     <t>The patient this person is related to.</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
     <t>We need to know which patient this RelatedPerson is related to.</t>
   </si>
   <si>
@@ -797,8 +785,8 @@
     <t>Reference.reference</t>
   </si>
   <si>
-    <t>ele-1
-ref-1</t>
+    <t xml:space="preserve">ref-1
+</t>
   </si>
   <si>
     <t>RelatedPerson.patient.type</t>
@@ -844,9 +832,6 @@
     <t>.identifier</t>
   </si>
   <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
     <t>RelatedPerson.patient.identifier.id</t>
   </si>
   <si>
@@ -893,9 +878,6 @@
   </si>
   <si>
     <t>The nature of the relationship between a patient and the related person.</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
     <t>We need to know the relationship with the patient since it influences the interpretation of the information attributed to this person.</t>
@@ -926,9 +908,6 @@
     <t>A name associated with the person.</t>
   </si>
   <si>
-    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
-  </si>
-  <si>
     <t>Related persons need to be identified by name, but it is uncommon to need details about multiple other names for that person.</t>
   </si>
   <si>
@@ -957,10 +936,6 @@
     <t>People have (primary) ways to contact them in some way such as phone, email.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
-  </si>
-  <si>
     <t>telecom</t>
   </si>
   <si>
@@ -982,9 +957,6 @@
     <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
     <t>Telecommunications form for contact point.</t>
   </si>
   <si>
@@ -994,8 +966,8 @@
     <t>ContactPoint.system</t>
   </si>
   <si>
-    <t>ele-1
-cpt-2</t>
+    <t xml:space="preserve">cpt-2
+</t>
   </si>
   <si>
     <t>./scheme</t>
@@ -1005,6 +977,12 @@
   </si>
   <si>
     <t>RelatedPerson.telecom.system.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
   </si>
   <si>
     <t>RelatedPerson.telecom.system.extension</t>
@@ -1032,9 +1010,6 @@
     <t>Primitive value for code</t>
   </si>
   <si>
-    <t>1048576</t>
-  </si>
-  <si>
     <t>string.value</t>
   </si>
   <si>
@@ -1179,9 +1154,6 @@
     <t>Address where the related person can be contacted or visited.</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
-  </si>
-  <si>
     <t>Need to keep track where the related person can be contacted per postal mail or visited.</t>
   </si>
   <si>
@@ -1204,16 +1176,9 @@
     <t>Image of the person.</t>
   </si>
   <si>
-    <t>When providing a summary view (for example with Observation.value[x]) Attachment should be represented with a brief display text such as "Signed Procedure Consent".</t>
-  </si>
-  <si>
     <t>Many EHR systems have the capability to capture an image of persons. Fits with newer social media usage too.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-att-1:If the Attachment has data, it SHALL have a contentType {data.empty() or contentType.exists()}</t>
-  </si>
-  <si>
     <t>player[classCode='PSN' and determinerCode='INSTANCE']/desc</t>
   </si>
   <si>
@@ -1233,9 +1198,6 @@
   </si>
   <si>
     <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>DR</t>
   </si>
   <si>
     <t>RelatedPerson.communication</t>
@@ -1299,9 +1261,6 @@
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/languageCommunication/code</t>
-  </si>
-  <si>
-    <t>CE/CNE/CWE</t>
   </si>
   <si>
     <t>RelatedPerson.communication.preferred</t>
@@ -1646,17 +1605,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.43359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="28.0234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.8046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.68359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="27.625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.12890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="94.6171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1665,25 +1624,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.23046875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="37.69140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.48046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="36.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="99.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="60.5" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="99.8984375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.79296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2119,13 +2078,13 @@
         <v>83</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK4" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>74</v>
@@ -2136,10 +2095,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2162,16 +2121,16 @@
         <v>84</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2221,7 +2180,7 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
@@ -2230,13 +2189,13 @@
         <v>83</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ5" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK5" t="s" s="2">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>74</v>
@@ -2247,10 +2206,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2273,16 +2232,16 @@
         <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2308,32 +2267,32 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Y6" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>113</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
       </c>
@@ -2341,13 +2300,13 @@
         <v>83</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ6" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK6" t="s" s="2">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>74</v>
@@ -2358,14 +2317,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2384,16 +2343,16 @@
         <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2443,7 +2402,7 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
@@ -2452,13 +2411,13 @@
         <v>83</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK7" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>74</v>
@@ -2469,14 +2428,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2495,16 +2454,16 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2554,7 +2513,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -2569,7 +2528,7 @@
         <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>74</v>
@@ -2580,14 +2539,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2606,17 +2565,15 @@
         <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>74</v>
@@ -2653,19 +2610,17 @@
         <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -2674,13 +2629,13 @@
         <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>74</v>
@@ -2691,16 +2646,16 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2719,17 +2674,15 @@
         <v>74</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -2778,7 +2731,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2787,13 +2740,13 @@
         <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>74</v>
@@ -2804,16 +2757,16 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2832,17 +2785,15 @@
         <v>74</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>74</v>
@@ -2891,7 +2842,7 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2900,13 +2851,13 @@
         <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>74</v>
@@ -2917,14 +2868,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2943,19 +2894,19 @@
         <v>74</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O12" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>74</v>
@@ -2992,19 +2943,19 @@
         <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -3013,13 +2964,13 @@
         <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>74</v>
@@ -3030,10 +2981,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3056,17 +3007,17 @@
         <v>84</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>74</v>
@@ -3115,7 +3066,7 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -3124,27 +3075,27 @@
         <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ13" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>161</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3167,13 +3118,13 @@
         <v>74</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3224,7 +3175,7 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -3239,7 +3190,7 @@
         <v>74</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>74</v>
@@ -3250,14 +3201,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3276,16 +3227,16 @@
         <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>168</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3323,19 +3274,19 @@
         <v>74</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -3344,13 +3295,13 @@
         <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>74</v>
@@ -3361,10 +3312,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3387,19 +3338,19 @@
         <v>84</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>74</v>
@@ -3424,13 +3375,13 @@
         <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>74</v>
@@ -3448,7 +3399,7 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -3457,27 +3408,27 @@
         <v>83</v>
       </c>
       <c r="AI16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ16" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3500,19 +3451,19 @@
         <v>84</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>74</v>
@@ -3537,13 +3488,13 @@
         <v>74</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>74</v>
@@ -3561,7 +3512,7 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -3570,27 +3521,27 @@
         <v>83</v>
       </c>
       <c r="AI17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ17" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3613,19 +3564,19 @@
         <v>84</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>74</v>
@@ -3638,7 +3589,7 @@
         <v>74</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>74</v>
@@ -3674,7 +3625,7 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -3683,27 +3634,27 @@
         <v>83</v>
       </c>
       <c r="AI18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ18" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3726,16 +3677,16 @@
         <v>84</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3749,7 +3700,7 @@
         <v>74</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>74</v>
@@ -3785,7 +3736,7 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -3794,27 +3745,27 @@
         <v>83</v>
       </c>
       <c r="AI19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ19" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3837,17 +3788,15 @@
         <v>84</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N20" t="s" s="2">
         <v>212</v>
       </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>74</v>
@@ -3905,27 +3854,27 @@
         <v>83</v>
       </c>
       <c r="AI20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ20" t="s" s="2">
+      <c r="AK20" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>216</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3948,16 +3897,16 @@
         <v>84</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4007,36 +3956,36 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>225</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4059,88 +4008,88 @@
         <v>84</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="P22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q22" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="O22" t="s" s="2">
+      <c r="R22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="P22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="R22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>74</v>
@@ -4148,10 +4097,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4174,19 +4123,17 @@
         <v>84</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>74</v>
@@ -4235,7 +4182,7 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>83</v>
@@ -4244,27 +4191,27 @@
         <v>83</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ23" t="s" s="2">
-        <v>223</v>
-      </c>
       <c r="AK23" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4287,13 +4234,13 @@
         <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4344,7 +4291,7 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4359,7 +4306,7 @@
         <v>74</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
@@ -4370,14 +4317,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4396,16 +4343,16 @@
         <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>168</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4443,19 +4390,19 @@
         <v>74</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4464,13 +4411,13 @@
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>74</v>
@@ -4481,10 +4428,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4507,16 +4454,16 @@
         <v>84</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4566,7 +4513,7 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4575,13 +4522,13 @@
         <v>83</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>74</v>
@@ -4592,10 +4539,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4618,16 +4565,16 @@
         <v>84</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4653,13 +4600,13 @@
         <v>74</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>74</v>
@@ -4677,7 +4624,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4686,13 +4633,13 @@
         <v>83</v>
       </c>
       <c r="AI27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ27" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK27" t="s" s="2">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>74</v>
@@ -4703,10 +4650,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4729,16 +4676,16 @@
         <v>84</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4788,7 +4735,7 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -4797,27 +4744,27 @@
         <v>83</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ28" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK28" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>264</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4840,13 +4787,13 @@
         <v>74</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4897,7 +4844,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -4912,7 +4859,7 @@
         <v>74</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>74</v>
@@ -4923,14 +4870,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4949,16 +4896,16 @@
         <v>74</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>168</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4996,19 +4943,19 @@
         <v>74</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -5017,13 +4964,13 @@
         <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>74</v>
@@ -5034,10 +4981,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5060,19 +5007,19 @@
         <v>84</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>74</v>
@@ -5097,13 +5044,13 @@
         <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>74</v>
@@ -5121,7 +5068,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5130,27 +5077,27 @@
         <v>83</v>
       </c>
       <c r="AI31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ31" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK31" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5173,19 +5120,19 @@
         <v>84</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>74</v>
@@ -5210,13 +5157,13 @@
         <v>74</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>74</v>
@@ -5234,7 +5181,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5243,27 +5190,27 @@
         <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ32" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK32" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5286,19 +5233,19 @@
         <v>84</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>74</v>
@@ -5311,7 +5258,7 @@
         <v>74</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>74</v>
@@ -5347,7 +5294,7 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5356,27 +5303,27 @@
         <v>83</v>
       </c>
       <c r="AI33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ33" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK33" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5399,16 +5346,16 @@
         <v>84</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5422,7 +5369,7 @@
         <v>74</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>74</v>
@@ -5458,7 +5405,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5467,27 +5414,27 @@
         <v>83</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ34" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK34" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5510,17 +5457,15 @@
         <v>84</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N35" t="s" s="2">
         <v>212</v>
       </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>74</v>
@@ -5578,27 +5523,27 @@
         <v>83</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ35" t="s" s="2">
+      <c r="AK35" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>216</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5621,16 +5566,16 @@
         <v>84</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5680,36 +5625,36 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>225</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5732,16 +5677,16 @@
         <v>84</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5791,7 +5736,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5800,13 +5745,13 @@
         <v>83</v>
       </c>
       <c r="AI37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ37" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK37" t="s" s="2">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>74</v>
@@ -5817,10 +5762,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5843,19 +5788,17 @@
         <v>84</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>74</v>
@@ -5880,13 +5823,11 @@
         <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>74</v>
@@ -5904,7 +5845,7 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -5913,27 +5854,27 @@
         <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ38" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK38" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5956,19 +5897,17 @@
         <v>84</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>74</v>
@@ -6017,7 +5956,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -6026,27 +5965,27 @@
         <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ39" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK39" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6069,19 +6008,19 @@
         <v>84</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>74</v>
@@ -6130,7 +6069,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6139,27 +6078,27 @@
         <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ40" t="s" s="2">
-        <v>301</v>
-      </c>
       <c r="AK40" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6182,13 +6121,13 @@
         <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6239,7 +6178,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6254,7 +6193,7 @@
         <v>74</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
@@ -6265,14 +6204,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6291,16 +6230,16 @@
         <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>168</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6338,19 +6277,19 @@
         <v>74</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6359,13 +6298,13 @@
         <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>74</v>
@@ -6376,10 +6315,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6402,17 +6341,15 @@
         <v>84</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>74</v>
@@ -6437,13 +6374,13 @@
         <v>74</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>74</v>
@@ -6461,7 +6398,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -6470,27 +6407,27 @@
         <v>83</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6513,13 +6450,13 @@
         <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>164</v>
+        <v>309</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6570,7 +6507,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6585,7 +6522,7 @@
         <v>74</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>74</v>
@@ -6596,14 +6533,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6622,17 +6559,15 @@
         <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>74</v>
@@ -6669,19 +6604,17 @@
         <v>74</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AC45" s="2"/>
       <c r="AD45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -6690,13 +6623,13 @@
         <v>76</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>
@@ -6707,16 +6640,16 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6735,17 +6668,15 @@
         <v>74</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>74</v>
@@ -6794,7 +6725,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -6803,13 +6734,13 @@
         <v>76</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>74</v>
@@ -6820,10 +6751,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6846,13 +6777,13 @@
         <v>74</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6876,7 +6807,7 @@
         <v>74</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>325</v>
+        <v>74</v>
       </c>
       <c r="X47" t="s" s="2">
         <v>74</v>
@@ -6903,7 +6834,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -6929,10 +6860,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6955,19 +6886,19 @@
         <v>84</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>74</v>
@@ -7016,7 +6947,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7025,27 +6956,27 @@
         <v>83</v>
       </c>
       <c r="AI48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ48" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK48" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7068,19 +6999,19 @@
         <v>84</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>74</v>
@@ -7105,13 +7036,13 @@
         <v>74</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>74</v>
@@ -7129,7 +7060,7 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7138,27 +7069,27 @@
         <v>83</v>
       </c>
       <c r="AI49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ49" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK49" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7181,16 +7112,16 @@
         <v>84</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7240,7 +7171,7 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7249,27 +7180,27 @@
         <v>83</v>
       </c>
       <c r="AI50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ50" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK50" t="s" s="2">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>104</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7292,17 +7223,15 @@
         <v>84</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>74</v>
@@ -7351,7 +7280,7 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7360,27 +7289,27 @@
         <v>83</v>
       </c>
       <c r="AI51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ51" t="s" s="2">
-        <v>214</v>
-      </c>
       <c r="AK51" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7403,19 +7332,17 @@
         <v>84</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>74</v>
@@ -7440,13 +7367,13 @@
         <v>74</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>74</v>
@@ -7464,36 +7391,36 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>363</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7516,13 +7443,13 @@
         <v>84</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7573,7 +7500,7 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7582,13 +7509,13 @@
         <v>83</v>
       </c>
       <c r="AI53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ53" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK53" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>74</v>
@@ -7599,10 +7526,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7625,19 +7552,17 @@
         <v>84</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>74</v>
@@ -7686,7 +7611,7 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -7695,27 +7620,27 @@
         <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ54" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK54" t="s" s="2">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7738,19 +7663,17 @@
         <v>74</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>74</v>
@@ -7799,7 +7722,7 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -7808,27 +7731,27 @@
         <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ55" t="s" s="2">
-        <v>383</v>
-      </c>
       <c r="AK55" t="s" s="2">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7851,17 +7774,15 @@
         <v>74</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>74</v>
@@ -7910,7 +7831,7 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -7919,27 +7840,27 @@
         <v>83</v>
       </c>
       <c r="AI56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ56" t="s" s="2">
-        <v>214</v>
-      </c>
       <c r="AK56" t="s" s="2">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>391</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7962,19 +7883,19 @@
         <v>74</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>74</v>
@@ -8023,7 +7944,7 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -8032,13 +7953,13 @@
         <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ57" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK57" t="s" s="2">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>74</v>
@@ -8049,10 +7970,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8075,13 +7996,13 @@
         <v>74</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8132,7 +8053,7 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -8147,7 +8068,7 @@
         <v>74</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>74</v>
@@ -8158,14 +8079,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8184,16 +8105,16 @@
         <v>74</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>168</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8231,19 +8152,19 @@
         <v>74</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8252,13 +8173,13 @@
         <v>76</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>74</v>
@@ -8269,14 +8190,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8295,19 +8216,19 @@
         <v>84</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>74</v>
@@ -8356,7 +8277,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8365,13 +8286,13 @@
         <v>76</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>74</v>
@@ -8382,10 +8303,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8408,19 +8329,19 @@
         <v>74</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>74</v>
@@ -8445,13 +8366,13 @@
         <v>74</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>74</v>
@@ -8469,7 +8390,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>83</v>
@@ -8478,27 +8399,27 @@
         <v>83</v>
       </c>
       <c r="AI61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ61" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK61" t="s" s="2">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>412</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8521,19 +8442,19 @@
         <v>74</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>74</v>
@@ -8582,7 +8503,7 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -8591,13 +8512,13 @@
         <v>83</v>
       </c>
       <c r="AI62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ62" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK62" t="s" s="2">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>74</v>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-19T04:03:07+01:00</t>
+    <t>2024-04-23T08:00:23+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-RelatedPerson.xlsx
+++ b/docs/StructureDefinition-RelatedPerson.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-23T08:00:23+01:00</t>
+    <t>2024-04-24T08:46:57+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
